--- a/delinquency.xlsx
+++ b/delinquency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="392">
   <si>
     <t>office</t>
   </si>
@@ -406,6 +406,9 @@
     <t>Hôpital Esperance de Pilate</t>
   </si>
   <si>
+    <t>Clinique Medico-Chirurgicale Dugue</t>
+  </si>
+  <si>
     <t>Clinique J-Benjamin</t>
   </si>
   <si>
@@ -463,6 +466,9 @@
     <t>PIL/HOEP/ST02070</t>
   </si>
   <si>
+    <t>CAP/CMCD/ST00091</t>
+  </si>
+  <si>
     <t>CAP/SECH/ST00833</t>
   </si>
   <si>
@@ -478,12 +484,12 @@
     <t>ENN/HTLO/ST00679</t>
   </si>
   <si>
+    <t>GON/CSFA/ST01470</t>
+  </si>
+  <si>
     <t>GON/CSFA/ST01097</t>
   </si>
   <si>
-    <t>GON/CSFA/ST01470</t>
-  </si>
-  <si>
     <t>GON/CDIR/ST02441</t>
   </si>
   <si>
@@ -496,30 +502,30 @@
     <t>GRO/HAMG/ST00649</t>
   </si>
   <si>
+    <t>SMA/CSSM/ST00620</t>
+  </si>
+  <si>
     <t>SMA/CSSM/ST00986</t>
   </si>
   <si>
-    <t>SMA/CSSM/ST00620</t>
+    <t>STM/CSPP/ST02015</t>
   </si>
   <si>
     <t>STM/CSPP/ST02486</t>
   </si>
   <si>
-    <t>STM/CSPP/ST02015</t>
+    <t>LAG/HWLG/ST00813</t>
   </si>
   <si>
     <t>LAG/HWLG/ST01322</t>
   </si>
   <si>
-    <t>LAG/HWLG/ST00813</t>
+    <t>LAG/HWLG/ST01655</t>
   </si>
   <si>
     <t>LAG/HWLG/ST01571</t>
   </si>
   <si>
-    <t>LAG/HWLG/ST01655</t>
-  </si>
-  <si>
     <t>PAP/CMSP/ST00614</t>
   </si>
   <si>
@@ -550,6 +556,9 @@
     <t>PIL/HOEP</t>
   </si>
   <si>
+    <t>CAP/CMCD</t>
+  </si>
+  <si>
     <t>CAP/SECH</t>
   </si>
   <si>
@@ -607,6 +616,9 @@
     <t>Lizanne</t>
   </si>
   <si>
+    <t>Judith</t>
+  </si>
+  <si>
     <t>Didier</t>
   </si>
   <si>
@@ -622,12 +634,12 @@
     <t>Altanania</t>
   </si>
   <si>
+    <t>Mercilia</t>
+  </si>
+  <si>
     <t>Dieugrace</t>
   </si>
   <si>
-    <t>Mercilia</t>
-  </si>
-  <si>
     <t>Angelène</t>
   </si>
   <si>
@@ -640,30 +652,30 @@
     <t>EXILIA</t>
   </si>
   <si>
+    <t>Solange</t>
+  </si>
+  <si>
     <t>Rosemartha</t>
   </si>
   <si>
-    <t>Solange</t>
+    <t>Eveline</t>
   </si>
   <si>
     <t>Pierre</t>
   </si>
   <si>
-    <t>Eveline</t>
+    <t>Melissa</t>
   </si>
   <si>
     <t xml:space="preserve">Evanesque </t>
   </si>
   <si>
-    <t>Melissa</t>
+    <t>Joinica</t>
   </si>
   <si>
     <t xml:space="preserve">Judette </t>
   </si>
   <si>
-    <t>Joinica</t>
-  </si>
-  <si>
     <t>Rosita</t>
   </si>
   <si>
@@ -694,6 +706,9 @@
     <t>Tivil</t>
   </si>
   <si>
+    <t>Elvait</t>
+  </si>
+  <si>
     <t>Myrlande</t>
   </si>
   <si>
@@ -706,12 +721,12 @@
     <t>Sime</t>
   </si>
   <si>
+    <t>Ferdinand</t>
+  </si>
+  <si>
     <t>Cetoute</t>
   </si>
   <si>
-    <t>Ferdinand</t>
-  </si>
-  <si>
     <t>Azema</t>
   </si>
   <si>
@@ -724,28 +739,28 @@
     <t>RICHE</t>
   </si>
   <si>
+    <t>Elie</t>
+  </si>
+  <si>
     <t>Merveus</t>
   </si>
   <si>
-    <t>Elie</t>
+    <t>PIERRE</t>
   </si>
   <si>
     <t>Sheilla</t>
   </si>
   <si>
-    <t>PIERRE</t>
+    <t>Belfort</t>
   </si>
   <si>
     <t>Nicolas</t>
   </si>
   <si>
-    <t>Belfort</t>
+    <t>JEAN</t>
   </si>
   <si>
     <t>LAURENT</t>
-  </si>
-  <si>
-    <t>JEAN</t>
   </si>
   <si>
     <t>Merisier</t>
@@ -773,6 +788,9 @@
 Mere Lisette jean</t>
   </si>
   <si>
+    <t>Galwa</t>
+  </si>
+  <si>
     <t>Camp-Coq nan marguerite, bo pye mapou a</t>
   </si>
   <si>
@@ -785,10 +803,10 @@
     <t>Dubedou</t>
   </si>
   <si>
+    <t>Bayonnais</t>
+  </si>
+  <si>
     <t>Boukan Toman Bayonnais</t>
-  </si>
-  <si>
-    <t>Bayonnais</t>
   </si>
   <si>
     <t>Bas Jubilé</t>
@@ -804,13 +822,13 @@
     <t>K-MADAM,RAVINE GROS MORNE FACE L EAU TRAITEE</t>
   </si>
   <si>
-    <t>Platana Savanne à Pied</t>
-  </si>
-  <si>
     <t>Licanta pi haut eglise pasteur Dieuseul_x000D_
 Platana</t>
   </si>
   <si>
+    <t>Platana Savanne à Pied</t>
+  </si>
+  <si>
     <t>Pont sondé</t>
   </si>
   <si>
@@ -853,6 +871,9 @@
     <t>43991888</t>
   </si>
   <si>
+    <t>48697228</t>
+  </si>
+  <si>
     <t>33924464</t>
   </si>
   <si>
@@ -877,12 +898,12 @@
     <t>47142223</t>
   </si>
   <si>
+    <t>43412559</t>
+  </si>
+  <si>
     <t>50948473418</t>
   </si>
   <si>
-    <t>43412559</t>
-  </si>
-  <si>
     <t>31559104</t>
   </si>
   <si>
@@ -934,6 +955,9 @@
     <t>Femmes vertueuses II</t>
   </si>
   <si>
+    <t>Orchidee 3</t>
+  </si>
+  <si>
     <t>lauriers</t>
   </si>
   <si>
@@ -961,18 +985,18 @@
     <t>ETOILES DE GROS-MORNE</t>
   </si>
   <si>
+    <t>Fanm Vanyan de SMA</t>
+  </si>
+  <si>
     <t>Ambassadrice 3</t>
   </si>
   <si>
-    <t>Fanm Vanyan de SMA</t>
+    <t>Tet ansanb</t>
   </si>
   <si>
     <t>Femmes courageuses de Pierre Payen</t>
   </si>
   <si>
-    <t>Tet ansanb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Femmes solides </t>
   </si>
   <si>
@@ -1099,6 +1123,9 @@
     <t>2024-10-05</t>
   </si>
   <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
     <t>2025-07-08</t>
   </si>
   <si>
@@ -1114,12 +1141,12 @@
     <t>2024-12-06</t>
   </si>
   <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
     <t>2024-03-31</t>
   </si>
   <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
     <t>2025-06-22</t>
   </si>
   <si>
@@ -1132,28 +1159,28 @@
     <t>2024-10-22</t>
   </si>
   <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
     <t>2025-01-31</t>
   </si>
   <si>
-    <t>2024-07-22</t>
+    <t>2025-07-13</t>
   </si>
   <si>
     <t>2025-07-09</t>
   </si>
   <si>
-    <t>2025-07-13</t>
+    <t>2025-04-20</t>
   </si>
   <si>
     <t>2025-07-03</t>
   </si>
   <si>
-    <t>2025-04-20</t>
+    <t>2025-05-27</t>
   </si>
   <si>
     <t>2025-06-06</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
   </si>
   <si>
     <t>2024-12-02</t>
@@ -1529,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CJ30"/>
+  <dimension ref="A1:CJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1824,19 +1851,19 @@
         <v>43920</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J2" s="2">
         <v>43525.67803240741</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N2" s="3">
         <v>32403</v>
@@ -1845,37 +1872,37 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q2" t="s">
         <v>127</v>
       </c>
       <c r="R2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Y2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -1896,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="AO2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP2" s="3">
         <v>45763</v>
       </c>
       <c r="AQ2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AY2" s="3">
         <v>45418</v>
@@ -1920,10 +1947,10 @@
         <v>45429.55692129629</v>
       </c>
       <c r="BC2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BD2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="BE2" s="3">
         <v>45394</v>
@@ -1932,73 +1959,73 @@
         <v>10</v>
       </c>
       <c r="BG2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="BH2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="BJ2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="BK2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BL2">
         <v>1</v>
       </c>
       <c r="BM2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BO2" s="3">
         <v>45440</v>
       </c>
       <c r="BP2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="BQ2" s="3">
         <v>45490</v>
       </c>
       <c r="BR2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="BU2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BV2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BX2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="BY2" s="3">
         <v>44166</v>
       </c>
       <c r="CA2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="CC2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="CD2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="CE2" s="2">
         <v>45418</v>
       </c>
       <c r="CF2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="CG2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI2" s="3">
         <v>45708</v>
@@ -2009,7 +2036,7 @@
     </row>
     <row r="3" spans="1:88">
       <c r="A3" s="1">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -2033,19 +2060,19 @@
         <v>187714</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2">
         <v>45348.70815972222</v>
       </c>
       <c r="K3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N3" s="3">
         <v>34151</v>
@@ -2054,37 +2081,37 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q3" t="s">
         <v>128</v>
       </c>
       <c r="R3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AB3">
         <v>1</v>
@@ -2096,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2108,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="AO3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP3" s="3">
         <v>45618</v>
       </c>
       <c r="AQ3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR3" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AW3">
         <v>1</v>
@@ -2135,42 +2162,42 @@
         <v>45348.7141087963</v>
       </c>
       <c r="BC3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CC3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="CE3" s="2">
         <v>45373</v>
       </c>
       <c r="CF3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI3" s="3">
         <v>45377</v>
       </c>
       <c r="CJ3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:88">
       <c r="A4" s="1">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -2194,19 +2221,19 @@
         <v>26634</v>
       </c>
       <c r="I4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J4" s="2">
         <v>42562.60099537037</v>
       </c>
       <c r="K4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N4" s="3">
         <v>27701</v>
@@ -2215,37 +2242,37 @@
         <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q4" t="s">
         <v>129</v>
       </c>
       <c r="R4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Y4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z4" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -2257,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -2269,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP4" s="3">
         <v>45776</v>
       </c>
       <c r="AQ4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR4" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AY4" s="3">
         <v>45540</v>
@@ -2293,10 +2320,10 @@
         <v>45422.63403935185</v>
       </c>
       <c r="BC4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BD4" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="BE4" s="3">
         <v>45490</v>
@@ -2305,87 +2332,87 @@
         <v>10</v>
       </c>
       <c r="BG4" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="BH4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="BJ4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="BK4" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="BL4">
         <v>1</v>
       </c>
       <c r="BM4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BO4" s="3">
         <v>45533</v>
       </c>
       <c r="BQ4" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="BR4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="BU4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BV4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="BX4" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="BY4" s="3">
         <v>44162</v>
       </c>
       <c r="CA4" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="CC4" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="CD4" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="CE4" s="2">
         <v>45570</v>
       </c>
       <c r="CF4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="CG4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI4" s="3">
         <v>45408</v>
       </c>
       <c r="CJ4" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:88">
       <c r="A5" s="1">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>96</v>
@@ -2400,222 +2427,213 @@
         <v>130</v>
       </c>
       <c r="H5">
-        <v>204117</v>
+        <v>209301</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J5" s="2">
-        <v>45741.53994212963</v>
+        <v>45832.54972222223</v>
       </c>
       <c r="K5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N5" s="3">
-        <v>33496</v>
+        <v>31818</v>
       </c>
       <c r="O5">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q5" t="s">
         <v>130</v>
       </c>
       <c r="R5" t="s">
+        <v>278</v>
+      </c>
+      <c r="S5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U5" t="s">
+        <v>279</v>
+      </c>
+      <c r="V5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W5" t="s">
+        <v>279</v>
+      </c>
+      <c r="X5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>45819</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>45818</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>45693</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>45563</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>45819</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>45832.55387731481</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC5" t="s">
         <v>272</v>
       </c>
-      <c r="S5" t="s">
-        <v>273</v>
-      </c>
-      <c r="T5" t="s">
-        <v>273</v>
-      </c>
-      <c r="U5" t="s">
-        <v>273</v>
-      </c>
-      <c r="V5" t="s">
-        <v>273</v>
-      </c>
-      <c r="W5" t="s">
-        <v>273</v>
-      </c>
-      <c r="X5" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>45805</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>45846</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>45566</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>45685</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>45749.5670949074</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>300</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>301</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>266</v>
-      </c>
       <c r="CD5" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="CE5" s="2">
-        <v>45846</v>
+        <v>45843</v>
       </c>
       <c r="CF5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH5" t="s">
-        <v>300</v>
-      </c>
-      <c r="CI5" s="3">
-        <v>45726</v>
-      </c>
-      <c r="CJ5" s="3">
-        <v>45789</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:88">
       <c r="A6" s="1">
-        <v>1079</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
         <v>131</v>
       </c>
       <c r="H6">
-        <v>194528</v>
+        <v>204117</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J6" s="2">
-        <v>45489.76224537037</v>
+        <v>45741.53994212963</v>
       </c>
       <c r="K6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="N6" s="3">
-        <v>32119</v>
+        <v>33496</v>
       </c>
       <c r="O6">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q6" t="s">
         <v>131</v>
       </c>
       <c r="R6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y6" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>300</v>
       </c>
       <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>45474</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2630,183 +2648,150 @@
         <v>0</v>
       </c>
       <c r="AO6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP6" s="3">
-        <v>45750</v>
+        <v>45805</v>
       </c>
       <c r="AQ6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR6" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AW6">
         <v>1</v>
       </c>
       <c r="AY6" s="3">
-        <v>45618</v>
+        <v>45846</v>
       </c>
       <c r="AZ6" s="3">
-        <v>45268</v>
+        <v>45566</v>
       </c>
       <c r="BA6" s="3">
-        <v>45474</v>
+        <v>45685</v>
       </c>
       <c r="BB6" s="2">
-        <v>45489.76390046296</v>
+        <v>45749.5670949074</v>
       </c>
       <c r="BC6" t="s">
-        <v>300</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>331</v>
-      </c>
-      <c r="BE6" s="3">
-        <v>45550</v>
-      </c>
-      <c r="BF6">
-        <v>11</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>335</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>336</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>266</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>340</v>
-      </c>
-      <c r="BL6">
-        <v>1</v>
+        <v>308</v>
       </c>
       <c r="BM6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN6" t="s">
-        <v>301</v>
-      </c>
-      <c r="BO6" s="3">
-        <v>45580</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>297</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="CC6" t="s">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="CD6" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="CE6" s="2">
-        <v>45550</v>
+        <v>45846</v>
       </c>
       <c r="CF6" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CG6" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH6" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI6" s="3">
-        <v>45561</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>297</v>
+        <v>45726</v>
+      </c>
+      <c r="CJ6" s="3">
+        <v>45789</v>
       </c>
     </row>
     <row r="7" spans="1:88">
       <c r="A7" s="1">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
         <v>132</v>
       </c>
       <c r="H7">
-        <v>201257</v>
+        <v>194528</v>
       </c>
       <c r="I7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J7" s="2">
-        <v>45680.79515046296</v>
+        <v>45489.76224537037</v>
       </c>
       <c r="K7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="N7" s="3">
-        <v>33691</v>
+        <v>32119</v>
       </c>
       <c r="O7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="Q7" t="s">
         <v>132</v>
       </c>
       <c r="R7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y7" t="s">
-        <v>273</v>
+        <v>279</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>285</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
       <c r="AC7" s="3">
-        <v>45642</v>
+        <v>45474</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2821,72 +2806,105 @@
         <v>0</v>
       </c>
       <c r="AO7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP7" s="3">
-        <v>45729</v>
+        <v>45750</v>
       </c>
       <c r="AQ7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR7" t="s">
-        <v>307</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="AW7">
         <v>1</v>
       </c>
       <c r="AY7" s="3">
-        <v>45839</v>
+        <v>45618</v>
       </c>
       <c r="AZ7" s="3">
-        <v>45569</v>
+        <v>45268</v>
       </c>
       <c r="BA7" s="3">
-        <v>45642</v>
+        <v>45474</v>
       </c>
       <c r="BB7" s="2">
-        <v>45680.86460648148</v>
+        <v>45489.76390046296</v>
       </c>
       <c r="BC7" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>339</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>45550</v>
+      </c>
+      <c r="BF7">
+        <v>11</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>343</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>344</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>346</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>272</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>348</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
       </c>
       <c r="BM7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN7" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB7" t="s">
+        <v>308</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>45580</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR7" t="s">
         <v>350</v>
       </c>
       <c r="CC7" t="s">
-        <v>266</v>
+        <v>361</v>
       </c>
       <c r="CD7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="CE7" s="2">
-        <v>45849</v>
+        <v>45550</v>
       </c>
       <c r="CF7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="CG7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH7" t="s">
-        <v>300</v>
+        <v>308</v>
+      </c>
+      <c r="CI7" s="3">
+        <v>45561</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:88">
       <c r="A8" s="1">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -2904,70 +2922,67 @@
         <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H8">
-        <v>29502</v>
+        <v>201257</v>
       </c>
       <c r="I8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J8" s="2">
-        <v>42765.62567129629</v>
+        <v>45680.79515046296</v>
       </c>
       <c r="K8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N8" s="3">
-        <v>30331</v>
+        <v>33691</v>
       </c>
       <c r="O8">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="Q8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="T8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="U8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="V8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y8" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z8" t="s">
         <v>279</v>
       </c>
       <c r="AB8">
         <v>1</v>
       </c>
       <c r="AC8" s="3">
-        <v>45341</v>
+        <v>45642</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2982,84 +2997,72 @@
         <v>0</v>
       </c>
       <c r="AO8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP8" s="3">
         <v>45729</v>
       </c>
       <c r="AQ8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR8" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>335</v>
       </c>
       <c r="AW8">
         <v>1</v>
       </c>
       <c r="AY8" s="3">
-        <v>45465</v>
+        <v>45839</v>
       </c>
       <c r="AZ8" s="3">
-        <v>45179</v>
+        <v>45569</v>
       </c>
       <c r="BA8" s="3">
-        <v>45341</v>
+        <v>45642</v>
       </c>
       <c r="BB8" s="2">
-        <v>45415.80556712963</v>
+        <v>45680.86460648148</v>
       </c>
       <c r="BC8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN8" t="s">
-        <v>301</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>152</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>343</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>347</v>
-      </c>
-      <c r="BY8" s="3">
-        <v>44061</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>349</v>
+        <v>308</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>358</v>
       </c>
       <c r="CC8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD8" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="CE8" s="2">
-        <v>45460</v>
+        <v>45849</v>
       </c>
       <c r="CF8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH8" t="s">
-        <v>301</v>
-      </c>
-      <c r="CI8" s="3">
-        <v>45729</v>
-      </c>
-      <c r="CJ8" s="3">
-        <v>45945</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:88">
       <c r="A9" s="1">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -3077,70 +3080,70 @@
         <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H9">
-        <v>174052</v>
+        <v>29502</v>
       </c>
       <c r="I9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J9" s="2">
-        <v>44966.78353009259</v>
+        <v>42765.62567129629</v>
       </c>
       <c r="K9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N9" s="3">
-        <v>32940</v>
+        <v>30331</v>
       </c>
       <c r="O9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R9" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="T9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="U9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="V9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z9" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AB9">
         <v>1</v>
       </c>
       <c r="AC9" s="3">
-        <v>44945</v>
+        <v>45341</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -3155,75 +3158,90 @@
         <v>0</v>
       </c>
       <c r="AO9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP9" s="3">
         <v>45729</v>
       </c>
       <c r="AQ9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AW9">
         <v>1</v>
       </c>
       <c r="AY9" s="3">
-        <v>45574</v>
+        <v>45465</v>
       </c>
       <c r="AZ9" s="3">
-        <v>45351</v>
+        <v>45179</v>
       </c>
       <c r="BA9" s="3">
-        <v>45379</v>
+        <v>45341</v>
       </c>
       <c r="BB9" s="2">
-        <v>45429.79835648148</v>
+        <v>45415.80556712963</v>
       </c>
       <c r="BC9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN9" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>154</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>351</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>355</v>
+      </c>
+      <c r="BY9" s="3">
+        <v>44061</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>357</v>
       </c>
       <c r="CC9" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD9" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="CE9" s="2">
-        <v>45632</v>
+        <v>45460</v>
       </c>
       <c r="CF9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI9" s="3">
         <v>45729</v>
       </c>
       <c r="CJ9" s="3">
-        <v>45946</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="10" spans="1:88">
       <c r="A10" s="1">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>97</v>
@@ -3238,64 +3256,67 @@
         <v>133</v>
       </c>
       <c r="H10">
-        <v>197556</v>
+        <v>174052</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J10" s="2">
-        <v>45590.5246412037</v>
+        <v>44966.78353009259</v>
       </c>
       <c r="K10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N10" s="3">
-        <v>30945</v>
+        <v>32940</v>
       </c>
       <c r="O10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q10" t="s">
         <v>133</v>
       </c>
       <c r="R10" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S10" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="T10" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="U10" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="V10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y10" t="s">
-        <v>273</v>
+        <v>279</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>287</v>
       </c>
       <c r="AB10">
         <v>1</v>
       </c>
       <c r="AC10" s="3">
-        <v>45589</v>
+        <v>44945</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -3310,69 +3331,69 @@
         <v>0</v>
       </c>
       <c r="AO10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP10" s="3">
-        <v>45757</v>
+        <v>45729</v>
       </c>
       <c r="AQ10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR10" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AW10">
         <v>1</v>
       </c>
       <c r="AY10" s="3">
-        <v>45368</v>
+        <v>45574</v>
       </c>
       <c r="AZ10" s="3">
-        <v>45101</v>
+        <v>45351</v>
       </c>
       <c r="BA10" s="3">
-        <v>45589</v>
+        <v>45379</v>
       </c>
       <c r="BB10" s="2">
-        <v>45705.77799768518</v>
+        <v>45429.79835648148</v>
       </c>
       <c r="BC10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CC10" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD10" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="CE10" s="2">
-        <v>45382</v>
+        <v>45632</v>
       </c>
       <c r="CF10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI10" s="3">
         <v>45729</v>
       </c>
       <c r="CJ10" s="3">
-        <v>45847</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="11" spans="1:88">
       <c r="A11" s="1">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -3390,25 +3411,25 @@
         <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H11">
         <v>199552</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J11" s="2">
         <v>45618.59185185185</v>
       </c>
       <c r="K11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N11" s="3">
         <v>32566</v>
@@ -3417,37 +3438,37 @@
         <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R11" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="T11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="U11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="V11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z11" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AB11">
         <v>1</v>
@@ -3468,16 +3489,16 @@
         <v>0</v>
       </c>
       <c r="AO11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP11" s="3">
         <v>45757</v>
       </c>
       <c r="AQ11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR11" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AW11">
         <v>1</v>
@@ -3495,31 +3516,31 @@
         <v>45618.59543981482</v>
       </c>
       <c r="BC11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CC11" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD11" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="CE11" s="2">
         <v>45844</v>
       </c>
       <c r="CF11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI11" s="3">
         <v>45723</v>
@@ -3530,88 +3551,85 @@
     </row>
     <row r="12" spans="1:88">
       <c r="A12" s="1">
-        <v>1204</v>
+        <v>1175</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>134</v>
       </c>
       <c r="H12">
-        <v>204291</v>
+        <v>197556</v>
       </c>
       <c r="I12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J12" s="2">
-        <v>45743.79086805556</v>
+        <v>45590.5246412037</v>
       </c>
       <c r="K12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N12" s="3">
-        <v>38637</v>
+        <v>30945</v>
       </c>
       <c r="O12">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q12" t="s">
         <v>134</v>
       </c>
       <c r="R12" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S12" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="T12" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="U12" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="V12" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W12" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X12" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AB12">
         <v>1</v>
       </c>
       <c r="AC12" s="3">
-        <v>45712</v>
+        <v>45589</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -3626,69 +3644,75 @@
         <v>0</v>
       </c>
       <c r="AO12" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP12" s="3">
-        <v>45763</v>
+        <v>45757</v>
       </c>
       <c r="AQ12" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR12" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AW12">
         <v>1</v>
       </c>
       <c r="AY12" s="3">
-        <v>45830</v>
+        <v>45368</v>
       </c>
       <c r="AZ12" s="3">
-        <v>45550</v>
+        <v>45101</v>
       </c>
       <c r="BA12" s="3">
-        <v>45712</v>
+        <v>45589</v>
       </c>
       <c r="BB12" s="2">
-        <v>45743.79511574074</v>
+        <v>45705.77799768518</v>
       </c>
       <c r="BC12" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM12" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN12" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CC12" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD12" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="CE12" s="2">
-        <v>45830</v>
+        <v>45382</v>
       </c>
       <c r="CF12" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG12" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH12" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="CI12" s="3">
+        <v>45729</v>
+      </c>
+      <c r="CJ12" s="3">
+        <v>45847</v>
       </c>
     </row>
     <row r="13" spans="1:88">
       <c r="A13" s="1">
-        <v>1375</v>
+        <v>1204</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>97</v>
@@ -3703,70 +3727,67 @@
         <v>135</v>
       </c>
       <c r="H13">
-        <v>49927</v>
+        <v>204291</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J13" s="2">
-        <v>43816.66765046296</v>
+        <v>45743.79086805556</v>
       </c>
       <c r="K13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N13" s="3">
-        <v>31890</v>
+        <v>38637</v>
       </c>
       <c r="O13">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q13" t="s">
         <v>135</v>
       </c>
       <c r="R13" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z13" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AB13">
         <v>1</v>
       </c>
       <c r="AC13" s="3">
-        <v>45742</v>
+        <v>45712</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -3781,87 +3802,63 @@
         <v>0</v>
       </c>
       <c r="AO13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP13" s="3">
-        <v>45798</v>
+        <v>45854</v>
       </c>
       <c r="AQ13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR13" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AW13">
         <v>1</v>
       </c>
       <c r="AY13" s="3">
-        <v>45799</v>
+        <v>45830</v>
       </c>
       <c r="AZ13" s="3">
-        <v>45519</v>
+        <v>45550</v>
       </c>
       <c r="BA13" s="3">
-        <v>45742</v>
+        <v>45712</v>
       </c>
       <c r="BB13" s="2">
-        <v>45744.6271875</v>
+        <v>45743.79511574074</v>
       </c>
       <c r="BC13" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN13" t="s">
-        <v>301</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>157</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>343</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>348</v>
-      </c>
-      <c r="BY13" s="3">
-        <v>43963</v>
-      </c>
-      <c r="BZ13" s="3">
-        <v>43863</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CC13" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="CD13" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="CE13" s="2">
-        <v>45799</v>
+        <v>45830</v>
       </c>
       <c r="CF13" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG13" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH13" t="s">
-        <v>301</v>
-      </c>
-      <c r="CI13" s="3">
-        <v>45625</v>
-      </c>
-      <c r="CJ13" s="3">
-        <v>45821</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:88">
       <c r="A14" s="1">
-        <v>1391</v>
+        <v>1332</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -3879,70 +3876,73 @@
         <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H14">
-        <v>31268</v>
+        <v>49927</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J14" s="2">
-        <v>42858.53824074074</v>
+        <v>43816.66765046296</v>
       </c>
       <c r="K14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M14" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N14" s="3">
-        <v>32918</v>
+        <v>31890</v>
       </c>
       <c r="O14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R14" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="T14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="U14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="V14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z14" t="s">
-        <v>284</v>
+        <v>290</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>301</v>
       </c>
       <c r="AB14">
         <v>1</v>
       </c>
       <c r="AC14" s="3">
-        <v>45453</v>
+        <v>45742</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -3954,126 +3954,90 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP14" s="3">
-        <v>45631</v>
+        <v>45854</v>
       </c>
       <c r="AQ14" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR14" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AW14">
         <v>1</v>
       </c>
       <c r="AY14" s="3">
-        <v>45679</v>
+        <v>45799</v>
       </c>
       <c r="AZ14" s="3">
-        <v>45397</v>
+        <v>45519</v>
       </c>
       <c r="BA14" s="3">
-        <v>45453</v>
+        <v>45742</v>
       </c>
       <c r="BB14" s="2">
-        <v>45499.54865740741</v>
+        <v>45744.6271875</v>
       </c>
       <c r="BC14" t="s">
-        <v>300</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>332</v>
-      </c>
-      <c r="BE14" s="3">
-        <v>45596</v>
-      </c>
-      <c r="BF14">
-        <v>10</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>334</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>336</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>337</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>266</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>339</v>
-      </c>
-      <c r="BL14">
-        <v>1</v>
+        <v>308</v>
       </c>
       <c r="BM14" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN14" t="s">
-        <v>301</v>
-      </c>
-      <c r="BO14" s="3">
-        <v>45644</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>341</v>
-      </c>
-      <c r="BQ14" s="3">
-        <v>45679</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="BU14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BV14" t="s">
-        <v>344</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>345</v>
+        <v>351</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>356</v>
       </c>
       <c r="BY14" s="3">
-        <v>44118</v>
+        <v>43963</v>
+      </c>
+      <c r="BZ14" s="3">
+        <v>43863</v>
       </c>
       <c r="CA14" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="CC14" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="CD14" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="CE14" s="2">
-        <v>45679</v>
+        <v>45799</v>
       </c>
       <c r="CF14" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CG14" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH14" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI14" s="3">
-        <v>45644</v>
+        <v>45625</v>
       </c>
       <c r="CJ14" s="3">
-        <v>45749</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="15" spans="1:88">
       <c r="A15" s="1">
-        <v>1500</v>
+        <v>1367</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
@@ -4085,368 +4049,422 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
         <v>136</v>
       </c>
       <c r="H15">
-        <v>28564</v>
+        <v>31268</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J15" s="2">
-        <v>42695.55586805556</v>
+        <v>42858.53824074074</v>
       </c>
       <c r="K15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M15" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N15" s="3">
-        <v>32485</v>
+        <v>32918</v>
       </c>
       <c r="O15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q15" t="s">
         <v>136</v>
       </c>
       <c r="R15" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S15" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="T15" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="U15" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="V15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z15" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AB15">
         <v>1</v>
       </c>
       <c r="AC15" s="3">
-        <v>45533</v>
+        <v>45453</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
-      <c r="AH15" t="s">
-        <v>266</v>
-      </c>
       <c r="AI15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>44148</v>
+        <v>0</v>
       </c>
       <c r="AN15">
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP15" s="3">
-        <v>45764</v>
+        <v>45631</v>
       </c>
       <c r="AQ15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR15" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AW15">
         <v>1</v>
       </c>
       <c r="AY15" s="3">
-        <v>45587</v>
+        <v>45679</v>
       </c>
       <c r="AZ15" s="3">
-        <v>45306</v>
+        <v>45397</v>
       </c>
       <c r="BA15" s="3">
-        <v>45533</v>
+        <v>45453</v>
       </c>
       <c r="BB15" s="2">
-        <v>45534.68231481482</v>
+        <v>45499.54865740741</v>
       </c>
       <c r="BC15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BD15" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="BE15" s="3">
-        <v>45557</v>
+        <v>45596</v>
       </c>
       <c r="BF15">
         <v>10</v>
       </c>
       <c r="BG15" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="BH15" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI15" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="BJ15" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="BK15" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BL15">
         <v>1</v>
       </c>
       <c r="BM15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BO15" s="3">
-        <v>45603</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>297</v>
+        <v>45644</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>349</v>
+      </c>
+      <c r="BQ15" s="3">
+        <v>45679</v>
       </c>
       <c r="BR15" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="BU15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BV15" t="s">
-        <v>343</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>346</v>
+        <v>352</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>353</v>
       </c>
       <c r="BY15" s="3">
-        <v>44146</v>
+        <v>44118</v>
       </c>
       <c r="CA15" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="CC15" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="CD15" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="CE15" s="2">
-        <v>45587</v>
+        <v>45679</v>
       </c>
       <c r="CF15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="CG15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI15" s="3">
-        <v>45667</v>
+        <v>45644</v>
       </c>
       <c r="CJ15" s="3">
-        <v>45818</v>
+        <v>45749</v>
       </c>
     </row>
     <row r="16" spans="1:88">
       <c r="A16" s="1">
-        <v>1596</v>
+        <v>1480</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
         <v>137</v>
       </c>
       <c r="H16">
-        <v>125137</v>
+        <v>28564</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J16" s="2">
-        <v>44468.77130787037</v>
+        <v>42695.55586805556</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M16" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N16" s="3">
-        <v>33302</v>
+        <v>32485</v>
       </c>
       <c r="O16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q16" t="s">
         <v>137</v>
       </c>
       <c r="R16" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S16" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="T16" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="U16" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="V16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z16" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AB16">
         <v>1</v>
       </c>
       <c r="AC16" s="3">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
+      <c r="AH16" t="s">
+        <v>272</v>
+      </c>
       <c r="AI16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>44148</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP16" s="3">
-        <v>45727</v>
+        <v>45764</v>
       </c>
       <c r="AQ16" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AW16">
         <v>1</v>
       </c>
       <c r="AY16" s="3">
-        <v>45688</v>
+        <v>45587</v>
       </c>
       <c r="AZ16" s="3">
-        <v>45406</v>
+        <v>45306</v>
       </c>
       <c r="BA16" s="3">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="BB16" s="2">
-        <v>45692.64329861111</v>
+        <v>45534.68231481482</v>
       </c>
       <c r="BC16" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>341</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>45557</v>
+      </c>
+      <c r="BF16">
+        <v>10</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>342</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>344</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>346</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>272</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>347</v>
+      </c>
+      <c r="BL16">
+        <v>1</v>
       </c>
       <c r="BM16" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN16" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="BO16" s="3">
+        <v>45603</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>350</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>351</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>354</v>
+      </c>
+      <c r="BY16" s="3">
+        <v>44146</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>357</v>
       </c>
       <c r="CC16" t="s">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="CD16" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="CE16" s="2">
-        <v>45688</v>
+        <v>45587</v>
       </c>
       <c r="CF16" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="CG16" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH16" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI16" s="3">
-        <v>45348</v>
+        <v>45667</v>
       </c>
       <c r="CJ16" s="3">
-        <v>45863</v>
+        <v>45818</v>
       </c>
     </row>
     <row r="17" spans="1:88">
       <c r="A17" s="1">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
@@ -4464,25 +4482,25 @@
         <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H17">
         <v>36798</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J17" s="2">
         <v>43137.83925925926</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N17" s="3">
         <v>32874</v>
@@ -4491,40 +4509,40 @@
         <v>35</v>
       </c>
       <c r="P17" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R17" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z17" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AA17" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -4536,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AH17" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -4548,16 +4566,16 @@
         <v>0</v>
       </c>
       <c r="AO17" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP17" s="3">
         <v>45622</v>
       </c>
       <c r="AQ17" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR17" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AW17">
         <v>1</v>
@@ -4575,60 +4593,60 @@
         <v>45483.59184027778</v>
       </c>
       <c r="BC17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM17" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BU17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BV17" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BX17" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BY17" s="3">
         <v>44152</v>
       </c>
       <c r="CA17" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="CC17" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD17" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="CE17" s="2">
         <v>45495</v>
       </c>
       <c r="CF17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI17" s="3">
         <v>45134</v>
       </c>
       <c r="CJ17" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:88">
       <c r="A18" s="1">
-        <v>1676</v>
+        <v>1644</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
@@ -4637,76 +4655,76 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
         <v>138</v>
       </c>
       <c r="H18">
-        <v>201086</v>
+        <v>125137</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J18" s="2">
-        <v>45646.6363425926</v>
+        <v>44468.77130787037</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N18" s="3">
-        <v>34740</v>
+        <v>33302</v>
       </c>
       <c r="O18">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q18" t="s">
         <v>138</v>
       </c>
       <c r="R18" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z18" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AB18">
         <v>1</v>
       </c>
       <c r="AC18" s="3">
-        <v>45646</v>
+        <v>45528</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -4721,72 +4739,69 @@
         <v>0</v>
       </c>
       <c r="AO18" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP18" s="3">
-        <v>45757</v>
+        <v>45727</v>
       </c>
       <c r="AQ18" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR18" t="s">
-        <v>316</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>326</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AW18">
         <v>1</v>
       </c>
       <c r="AY18" s="3">
-        <v>45847</v>
+        <v>45688</v>
       </c>
       <c r="AZ18" s="3">
-        <v>45567</v>
+        <v>45406</v>
       </c>
       <c r="BA18" s="3">
-        <v>45637</v>
+        <v>45528</v>
       </c>
       <c r="BB18" s="2">
-        <v>45646.63934027778</v>
+        <v>45692.64329861111</v>
       </c>
       <c r="BC18" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM18" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN18" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="CC18" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD18" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="CE18" s="2">
-        <v>45847</v>
+        <v>45688</v>
       </c>
       <c r="CF18" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG18" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH18" t="s">
-        <v>300</v>
+        <v>308</v>
+      </c>
+      <c r="CI18" s="3">
+        <v>45348</v>
+      </c>
+      <c r="CJ18" s="3">
+        <v>45863</v>
       </c>
     </row>
     <row r="19" spans="1:88">
       <c r="A19" s="1">
-        <v>1708</v>
+        <v>1689</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -4804,58 +4819,58 @@
         <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H19">
         <v>106990</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J19" s="2">
         <v>44262.65186342593</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N19" s="3">
         <v>36357</v>
       </c>
       <c r="O19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R19" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -4876,16 +4891,16 @@
         <v>0</v>
       </c>
       <c r="AO19" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP19" s="3">
         <v>45799</v>
       </c>
       <c r="AQ19" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR19" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AY19" s="3">
         <v>45849</v>
@@ -4900,179 +4915,197 @@
         <v>45792.62974537037</v>
       </c>
       <c r="BC19" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM19" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN19" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CC19" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD19" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="CE19" s="2">
         <v>45851</v>
       </c>
       <c r="CF19" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG19" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH19" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:88">
       <c r="A20" s="1">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B20" t="s">
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
         <v>139</v>
       </c>
       <c r="H20">
-        <v>105496</v>
+        <v>201086</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J20" s="2">
-        <v>44187.98162037037</v>
+        <v>45646.6363425926</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N20" s="3">
-        <v>34700</v>
+        <v>34740</v>
       </c>
       <c r="O20">
         <v>30</v>
       </c>
+      <c r="P20" t="s">
+        <v>270</v>
+      </c>
       <c r="Q20" t="s">
         <v>139</v>
       </c>
       <c r="R20" t="s">
+        <v>278</v>
+      </c>
+      <c r="S20" t="s">
+        <v>279</v>
+      </c>
+      <c r="T20" t="s">
+        <v>279</v>
+      </c>
+      <c r="U20" t="s">
+        <v>279</v>
+      </c>
+      <c r="V20" t="s">
+        <v>279</v>
+      </c>
+      <c r="W20" t="s">
+        <v>279</v>
+      </c>
+      <c r="X20" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>45646</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>45757</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="3">
+        <v>45847</v>
+      </c>
+      <c r="AZ20" s="3">
+        <v>45567</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>45637</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>45646.63934027778</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>358</v>
+      </c>
+      <c r="CC20" t="s">
         <v>272</v>
       </c>
-      <c r="S20" t="s">
-        <v>273</v>
-      </c>
-      <c r="T20" t="s">
-        <v>273</v>
-      </c>
-      <c r="U20" t="s">
-        <v>273</v>
-      </c>
-      <c r="V20" t="s">
-        <v>273</v>
-      </c>
-      <c r="W20" t="s">
-        <v>273</v>
-      </c>
-      <c r="X20" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP20" s="3">
-        <v>45730</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>318</v>
-      </c>
-      <c r="AY20" s="3">
-        <v>45827</v>
-      </c>
-      <c r="AZ20" s="3">
-        <v>45561</v>
-      </c>
-      <c r="BA20" s="3">
-        <v>45596</v>
-      </c>
-      <c r="BB20" s="2">
-        <v>45770.62298611111</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>300</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>301</v>
-      </c>
-      <c r="CC20" t="s">
-        <v>266</v>
-      </c>
       <c r="CD20" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="CE20" s="2">
-        <v>45841</v>
+        <v>45847</v>
       </c>
       <c r="CF20" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG20" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH20" t="s">
-        <v>301</v>
-      </c>
-      <c r="CI20" s="3">
-        <v>44692</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:88">
       <c r="A21" s="1">
-        <v>1714</v>
+        <v>1726</v>
       </c>
       <c r="B21" t="s">
         <v>89</v>
@@ -5090,25 +5123,25 @@
         <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H21">
         <v>24009</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J21" s="2">
         <v>42411.69771990741</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N21" s="3">
         <v>36255</v>
@@ -5117,37 +5150,37 @@
         <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R21" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AB21">
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -5162,16 +5195,16 @@
         <v>0</v>
       </c>
       <c r="AO21" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP21" s="3">
         <v>45730</v>
       </c>
       <c r="AQ21" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR21" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AY21" s="3">
         <v>45767</v>
@@ -5186,36 +5219,36 @@
         <v>45770.62432870371</v>
       </c>
       <c r="BC21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BN21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CC21" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD21" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="CE21" s="2">
         <v>45767</v>
       </c>
       <c r="CF21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:88">
       <c r="A22" s="1">
-        <v>1717</v>
+        <v>1729</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -5233,129 +5266,132 @@
         <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H22">
-        <v>186134</v>
+        <v>105496</v>
       </c>
       <c r="I22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J22" s="2">
-        <v>45300.80584490741</v>
+        <v>44187.98162037037</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N22" s="3">
-        <v>33764</v>
+        <v>34700</v>
       </c>
       <c r="O22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R22" t="s">
+        <v>278</v>
+      </c>
+      <c r="S22" t="s">
+        <v>279</v>
+      </c>
+      <c r="T22" t="s">
+        <v>279</v>
+      </c>
+      <c r="U22" t="s">
+        <v>279</v>
+      </c>
+      <c r="V22" t="s">
+        <v>279</v>
+      </c>
+      <c r="W22" t="s">
+        <v>279</v>
+      </c>
+      <c r="X22" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>45819</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY22" s="3">
+        <v>45827</v>
+      </c>
+      <c r="AZ22" s="3">
+        <v>45561</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>45596</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>45770.62298611111</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC22" t="s">
         <v>272</v>
       </c>
-      <c r="S22" t="s">
-        <v>273</v>
-      </c>
-      <c r="T22" t="s">
-        <v>273</v>
-      </c>
-      <c r="U22" t="s">
-        <v>273</v>
-      </c>
-      <c r="V22" t="s">
-        <v>273</v>
-      </c>
-      <c r="W22" t="s">
-        <v>273</v>
-      </c>
-      <c r="X22" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP22" s="3">
-        <v>45730</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>318</v>
-      </c>
-      <c r="AY22" s="3">
-        <v>45814</v>
-      </c>
-      <c r="AZ22" s="3">
-        <v>45533</v>
-      </c>
-      <c r="BA22" s="3">
-        <v>44757</v>
-      </c>
-      <c r="BB22" s="2">
-        <v>45770.56368055556</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>300</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>301</v>
-      </c>
-      <c r="CC22" t="s">
-        <v>266</v>
-      </c>
       <c r="CD22" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="CE22" s="2">
-        <v>45813</v>
+        <v>45841</v>
       </c>
       <c r="CF22" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG22" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH22" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="CI22" s="3">
+        <v>44692</v>
       </c>
     </row>
     <row r="23" spans="1:88">
       <c r="A23" s="1">
-        <v>1719</v>
+        <v>1732</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -5373,25 +5409,25 @@
         <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H23">
         <v>186339</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J23" s="2">
         <v>45309.74211805555</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N23" s="3">
         <v>33095</v>
@@ -5400,40 +5436,40 @@
         <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R23" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AB23">
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -5448,16 +5484,16 @@
         <v>0</v>
       </c>
       <c r="AO23" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP23" s="3">
-        <v>45730</v>
+        <v>45819</v>
       </c>
       <c r="AQ23" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR23" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AY23" s="3">
         <v>45804</v>
@@ -5472,203 +5508,176 @@
         <v>45770.56618055556</v>
       </c>
       <c r="BC23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM23" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CC23" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD23" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="CE23" s="2">
         <v>45804</v>
       </c>
       <c r="CF23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:88">
       <c r="A24" s="1">
-        <v>1944</v>
+        <v>1734</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
         <v>140</v>
       </c>
       <c r="H24">
-        <v>31860</v>
+        <v>186134</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J24" s="2">
-        <v>42879.80571759259</v>
+        <v>45300.80584490741</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N24" s="3">
-        <v>30932</v>
+        <v>33764</v>
       </c>
       <c r="O24">
-        <v>40</v>
-      </c>
-      <c r="P24" t="s">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="Q24" t="s">
         <v>140</v>
       </c>
       <c r="R24" t="s">
+        <v>278</v>
+      </c>
+      <c r="S24" t="s">
+        <v>279</v>
+      </c>
+      <c r="T24" t="s">
+        <v>279</v>
+      </c>
+      <c r="U24" t="s">
+        <v>279</v>
+      </c>
+      <c r="V24" t="s">
+        <v>279</v>
+      </c>
+      <c r="W24" t="s">
+        <v>279</v>
+      </c>
+      <c r="X24" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>45819</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>45814</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>45533</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>44757</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>45770.56368055556</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC24" t="s">
         <v>272</v>
       </c>
-      <c r="S24" t="s">
-        <v>273</v>
-      </c>
-      <c r="T24" t="s">
-        <v>273</v>
-      </c>
-      <c r="U24" t="s">
-        <v>273</v>
-      </c>
-      <c r="V24" t="s">
-        <v>273</v>
-      </c>
-      <c r="W24" t="s">
-        <v>273</v>
-      </c>
-      <c r="X24" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP24" s="3">
-        <v>45771</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>319</v>
-      </c>
-      <c r="AY24" s="3">
-        <v>45849</v>
-      </c>
-      <c r="AZ24" s="3">
-        <v>45569</v>
-      </c>
-      <c r="BA24" s="3">
-        <v>45617</v>
-      </c>
-      <c r="BB24" s="2">
-        <v>45632.06791666667</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>300</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>301</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>168</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>343</v>
-      </c>
-      <c r="BX24" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY24" s="3">
-        <v>44147</v>
-      </c>
-      <c r="CA24" t="s">
-        <v>349</v>
-      </c>
-      <c r="CC24" t="s">
-        <v>266</v>
-      </c>
       <c r="CD24" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="CE24" s="2">
-        <v>45849</v>
+        <v>45813</v>
       </c>
       <c r="CF24" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG24" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH24" t="s">
-        <v>300</v>
-      </c>
-      <c r="CI24" s="3">
-        <v>45782</v>
-      </c>
-      <c r="CJ24" s="3">
-        <v>45840</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:88">
       <c r="A25" s="1">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
@@ -5686,74 +5695,71 @@
         <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H25">
-        <v>194855</v>
+        <v>31860</v>
       </c>
       <c r="I25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J25" s="2">
-        <v>45530.64438657407</v>
+        <v>42879.80571759259</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N25" s="3">
-        <v>33210</v>
+        <v>30932</v>
       </c>
       <c r="O25">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R25" t="s">
+        <v>278</v>
+      </c>
+      <c r="S25" t="s">
+        <v>279</v>
+      </c>
+      <c r="T25" t="s">
+        <v>279</v>
+      </c>
+      <c r="U25" t="s">
+        <v>279</v>
+      </c>
+      <c r="V25" t="s">
+        <v>279</v>
+      </c>
+      <c r="W25" t="s">
+        <v>279</v>
+      </c>
+      <c r="X25" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="s">
         <v>272</v>
       </c>
-      <c r="S25" t="s">
-        <v>273</v>
-      </c>
-      <c r="T25" t="s">
-        <v>273</v>
-      </c>
-      <c r="U25" t="s">
-        <v>273</v>
-      </c>
-      <c r="V25" t="s">
-        <v>273</v>
-      </c>
-      <c r="W25" t="s">
-        <v>273</v>
-      </c>
-      <c r="X25" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>45463</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
       <c r="AI25">
         <v>0</v>
       </c>
@@ -5764,66 +5770,81 @@
         <v>0</v>
       </c>
       <c r="AO25" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AP25" s="3">
-        <v>45754</v>
+        <v>45771</v>
       </c>
       <c r="AQ25" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR25" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AY25" s="3">
-        <v>45627</v>
+        <v>45849</v>
       </c>
       <c r="AZ25" s="3">
-        <v>45347</v>
+        <v>45569</v>
       </c>
       <c r="BA25" s="3">
-        <v>45456</v>
+        <v>45617</v>
       </c>
       <c r="BB25" s="2">
-        <v>45530.66886574074</v>
+        <v>45632.06791666667</v>
       </c>
       <c r="BC25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM25" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN25" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>170</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>351</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>354</v>
+      </c>
+      <c r="BY25" s="3">
+        <v>44147</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>357</v>
       </c>
       <c r="CC25" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD25" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="CE25" s="2">
-        <v>45628</v>
+        <v>45849</v>
       </c>
       <c r="CF25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI25" s="3">
-        <v>45530</v>
+        <v>45782</v>
       </c>
       <c r="CJ25" s="3">
-        <v>45573</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="26" spans="1:88">
       <c r="A26" s="1">
-        <v>2122</v>
+        <v>2007</v>
       </c>
       <c r="B26" t="s">
         <v>89</v>
@@ -5844,67 +5865,67 @@
         <v>141</v>
       </c>
       <c r="H26">
-        <v>192006</v>
+        <v>194855</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J26" s="2">
-        <v>45425.68738425926</v>
+        <v>45530.64438657407</v>
       </c>
       <c r="K26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N26" s="3">
-        <v>30664</v>
+        <v>33210</v>
       </c>
       <c r="O26">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q26" t="s">
         <v>141</v>
       </c>
       <c r="R26" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z26" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AB26">
         <v>1</v>
       </c>
       <c r="AC26" s="3">
-        <v>45392</v>
+        <v>45463</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -5919,215 +5940,230 @@
         <v>0</v>
       </c>
       <c r="AO26" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AP26" s="3">
-        <v>45707</v>
+        <v>45754</v>
       </c>
       <c r="AQ26" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AR26" t="s">
-        <v>321</v>
-      </c>
-      <c r="AW26">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="AY26" s="3">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="AZ26" s="3">
         <v>45347</v>
       </c>
       <c r="BA26" s="3">
-        <v>45392</v>
+        <v>45456</v>
       </c>
       <c r="BB26" s="2">
-        <v>45425.68949074074</v>
+        <v>45530.66886574074</v>
       </c>
       <c r="BC26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM26" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BN26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CC26" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CD26" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="CE26" s="2">
         <v>45628</v>
       </c>
       <c r="CF26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI26" s="3">
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="CJ26" s="3">
-        <v>45552</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="27" spans="1:88">
       <c r="A27" s="1">
-        <v>2335</v>
+        <v>2163</v>
       </c>
       <c r="B27" t="s">
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
         <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
         <v>142</v>
       </c>
       <c r="H27">
-        <v>183731</v>
+        <v>192006</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J27" s="2">
-        <v>45204.62074074074</v>
+        <v>45425.68738425926</v>
       </c>
       <c r="K27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="N27" s="3">
-        <v>34135</v>
+        <v>30664</v>
       </c>
       <c r="O27">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="P27" t="s">
+        <v>274</v>
       </c>
       <c r="Q27" t="s">
         <v>142</v>
       </c>
       <c r="R27" t="s">
+        <v>278</v>
+      </c>
+      <c r="S27" t="s">
+        <v>279</v>
+      </c>
+      <c r="T27" t="s">
+        <v>279</v>
+      </c>
+      <c r="U27" t="s">
+        <v>279</v>
+      </c>
+      <c r="V27" t="s">
+        <v>279</v>
+      </c>
+      <c r="W27" t="s">
+        <v>279</v>
+      </c>
+      <c r="X27" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>45392</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP27" s="3">
+        <v>45707</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>329</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="3">
+        <v>45628</v>
+      </c>
+      <c r="AZ27" s="3">
+        <v>45347</v>
+      </c>
+      <c r="BA27" s="3">
+        <v>45392</v>
+      </c>
+      <c r="BB27" s="2">
+        <v>45425.68949074074</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC27" t="s">
         <v>272</v>
       </c>
-      <c r="S27" t="s">
-        <v>273</v>
-      </c>
-      <c r="T27" t="s">
-        <v>273</v>
-      </c>
-      <c r="U27" t="s">
-        <v>273</v>
-      </c>
-      <c r="V27" t="s">
-        <v>273</v>
-      </c>
-      <c r="W27" t="s">
-        <v>273</v>
-      </c>
-      <c r="X27" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP27" s="3">
-        <v>45709</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>322</v>
-      </c>
-      <c r="AY27" s="3">
-        <v>45395</v>
-      </c>
-      <c r="AZ27" s="3">
-        <v>45127</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>297</v>
-      </c>
-      <c r="BB27" s="2">
-        <v>45204.62678240741</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>301</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>301</v>
-      </c>
-      <c r="CC27" t="s">
-        <v>266</v>
-      </c>
       <c r="CD27" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="CE27" s="2">
-        <v>45409</v>
+        <v>45628</v>
       </c>
       <c r="CF27" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG27" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH27" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="CI27" s="3">
+        <v>45523</v>
+      </c>
+      <c r="CJ27" s="3">
+        <v>45552</v>
       </c>
     </row>
     <row r="28" spans="1:88">
       <c r="A28" s="1">
-        <v>2357</v>
+        <v>2345</v>
       </c>
       <c r="B28" t="s">
         <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
@@ -6142,302 +6178,287 @@
         <v>143</v>
       </c>
       <c r="H28">
-        <v>177881</v>
+        <v>183731</v>
       </c>
       <c r="I28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J28" s="2">
-        <v>45034.66113425926</v>
+        <v>45204.62074074074</v>
       </c>
       <c r="K28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s">
         <v>247</v>
       </c>
       <c r="N28" s="3">
-        <v>32137</v>
+        <v>34135</v>
       </c>
       <c r="O28">
-        <v>37</v>
-      </c>
-      <c r="P28" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="Q28" t="s">
         <v>143</v>
       </c>
       <c r="R28" t="s">
+        <v>278</v>
+      </c>
+      <c r="S28" t="s">
+        <v>279</v>
+      </c>
+      <c r="T28" t="s">
+        <v>279</v>
+      </c>
+      <c r="U28" t="s">
+        <v>279</v>
+      </c>
+      <c r="V28" t="s">
+        <v>279</v>
+      </c>
+      <c r="W28" t="s">
+        <v>279</v>
+      </c>
+      <c r="X28" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>45709</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>330</v>
+      </c>
+      <c r="AY28" s="3">
+        <v>45395</v>
+      </c>
+      <c r="AZ28" s="3">
+        <v>45127</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB28" s="2">
+        <v>45204.62678240741</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>308</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC28" t="s">
         <v>272</v>
       </c>
-      <c r="S28" t="s">
-        <v>273</v>
-      </c>
-      <c r="T28" t="s">
-        <v>273</v>
-      </c>
-      <c r="U28" t="s">
-        <v>273</v>
-      </c>
-      <c r="V28" t="s">
-        <v>273</v>
-      </c>
-      <c r="W28" t="s">
-        <v>273</v>
-      </c>
-      <c r="X28" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>45772</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>323</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AY28" s="3">
-        <v>45753</v>
-      </c>
-      <c r="AZ28" s="3">
-        <v>45473</v>
-      </c>
-      <c r="BA28" s="3">
-        <v>45519</v>
-      </c>
-      <c r="BB28" s="2">
-        <v>45548.69295138889</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>300</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>301</v>
-      </c>
-      <c r="CC28" t="s">
-        <v>266</v>
-      </c>
       <c r="CD28" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="CE28" s="2">
-        <v>45753</v>
+        <v>45409</v>
       </c>
       <c r="CF28" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG28" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH28" t="s">
-        <v>301</v>
-      </c>
-      <c r="CI28" s="3">
-        <v>45685</v>
-      </c>
-      <c r="CJ28" s="3">
-        <v>45768</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:88">
       <c r="A29" s="1">
-        <v>2560</v>
+        <v>2373</v>
       </c>
       <c r="B29" t="s">
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
         <v>144</v>
       </c>
       <c r="H29">
-        <v>160476</v>
+        <v>177881</v>
       </c>
       <c r="I29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J29" s="2">
-        <v>44708.61177083333</v>
+        <v>45034.66113425926</v>
       </c>
       <c r="K29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M29" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N29" s="3">
-        <v>33675</v>
+        <v>32137</v>
       </c>
       <c r="O29">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P29" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q29" t="s">
         <v>144</v>
       </c>
       <c r="R29" t="s">
+        <v>278</v>
+      </c>
+      <c r="S29" t="s">
+        <v>279</v>
+      </c>
+      <c r="T29" t="s">
+        <v>279</v>
+      </c>
+      <c r="U29" t="s">
+        <v>279</v>
+      </c>
+      <c r="V29" t="s">
+        <v>279</v>
+      </c>
+      <c r="W29" t="s">
+        <v>279</v>
+      </c>
+      <c r="X29" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>45772</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="3">
+        <v>45753</v>
+      </c>
+      <c r="AZ29" s="3">
+        <v>45473</v>
+      </c>
+      <c r="BA29" s="3">
+        <v>45519</v>
+      </c>
+      <c r="BB29" s="2">
+        <v>45548.69295138889</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC29" t="s">
         <v>272</v>
       </c>
-      <c r="S29" t="s">
-        <v>273</v>
-      </c>
-      <c r="T29" t="s">
-        <v>273</v>
-      </c>
-      <c r="U29" t="s">
-        <v>273</v>
-      </c>
-      <c r="V29" t="s">
-        <v>273</v>
-      </c>
-      <c r="W29" t="s">
-        <v>273</v>
-      </c>
-      <c r="X29" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>44662</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP29" s="3">
-        <v>45742</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>324</v>
-      </c>
-      <c r="AY29" s="3">
-        <v>45625</v>
-      </c>
-      <c r="AZ29" s="3">
-        <v>45344</v>
-      </c>
-      <c r="BA29" s="3">
-        <v>45461</v>
-      </c>
-      <c r="BB29" s="2">
-        <v>45536.06923611111</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>300</v>
-      </c>
-      <c r="BN29" t="s">
-        <v>301</v>
-      </c>
-      <c r="CC29" t="s">
-        <v>266</v>
-      </c>
       <c r="CD29" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="CE29" s="2">
-        <v>45625</v>
+        <v>45753</v>
       </c>
       <c r="CF29" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG29" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH29" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CI29" s="3">
-        <v>45554</v>
+        <v>45685</v>
       </c>
       <c r="CJ29" s="3">
-        <v>45554</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="30" spans="1:88">
       <c r="A30" s="1">
-        <v>2579</v>
+        <v>2561</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
         <v>98</v>
@@ -6452,132 +6473,287 @@
         <v>145</v>
       </c>
       <c r="H30">
-        <v>175111</v>
+        <v>160476</v>
       </c>
       <c r="I30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J30" s="2">
-        <v>44984.69831018519</v>
+        <v>44708.61177083333</v>
       </c>
       <c r="K30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M30" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="N30" s="3">
-        <v>30719</v>
+        <v>33675</v>
       </c>
       <c r="O30">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P30" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q30" t="s">
         <v>145</v>
       </c>
       <c r="R30" t="s">
+        <v>278</v>
+      </c>
+      <c r="S30" t="s">
+        <v>279</v>
+      </c>
+      <c r="T30" t="s">
+        <v>279</v>
+      </c>
+      <c r="U30" t="s">
+        <v>279</v>
+      </c>
+      <c r="V30" t="s">
+        <v>279</v>
+      </c>
+      <c r="W30" t="s">
+        <v>279</v>
+      </c>
+      <c r="X30" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>44662</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>45742</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY30" s="3">
+        <v>45625</v>
+      </c>
+      <c r="AZ30" s="3">
+        <v>45344</v>
+      </c>
+      <c r="BA30" s="3">
+        <v>45461</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>45536.06923611111</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC30" t="s">
         <v>272</v>
       </c>
-      <c r="S30" t="s">
-        <v>273</v>
-      </c>
-      <c r="T30" t="s">
-        <v>273</v>
-      </c>
-      <c r="U30" t="s">
-        <v>273</v>
-      </c>
-      <c r="V30" t="s">
-        <v>273</v>
-      </c>
-      <c r="W30" t="s">
-        <v>273</v>
-      </c>
-      <c r="X30" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP30" s="3">
+      <c r="CD30" t="s">
+        <v>390</v>
+      </c>
+      <c r="CE30" s="2">
+        <v>45625</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>308</v>
+      </c>
+      <c r="CH30" t="s">
+        <v>308</v>
+      </c>
+      <c r="CI30" s="3">
+        <v>45554</v>
+      </c>
+      <c r="CJ30" s="3">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:88">
+      <c r="A31" s="1">
+        <v>2591</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31">
+        <v>175111</v>
+      </c>
+      <c r="I31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="2">
+        <v>44984.69831018519</v>
+      </c>
+      <c r="K31" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M31" t="s">
+        <v>249</v>
+      </c>
+      <c r="N31" s="3">
+        <v>30719</v>
+      </c>
+      <c r="O31">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>146</v>
+      </c>
+      <c r="R31" t="s">
+        <v>278</v>
+      </c>
+      <c r="S31" t="s">
+        <v>279</v>
+      </c>
+      <c r="T31" t="s">
+        <v>279</v>
+      </c>
+      <c r="U31" t="s">
+        <v>279</v>
+      </c>
+      <c r="V31" t="s">
+        <v>279</v>
+      </c>
+      <c r="W31" t="s">
+        <v>279</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP31" s="3">
         <v>45771</v>
       </c>
-      <c r="AQ30" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>325</v>
-      </c>
-      <c r="AY30" s="3">
+      <c r="AQ31" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>333</v>
+      </c>
+      <c r="AY31" s="3">
         <v>45850</v>
       </c>
-      <c r="AZ30" s="3">
+      <c r="AZ31" s="3">
         <v>45570</v>
       </c>
-      <c r="BA30" t="s">
-        <v>297</v>
-      </c>
-      <c r="BB30" s="2">
+      <c r="BA31" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB31" s="2">
         <v>45761.69460648148</v>
       </c>
-      <c r="BC30" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>300</v>
-      </c>
-      <c r="BN30" t="s">
-        <v>301</v>
-      </c>
-      <c r="CC30" t="s">
-        <v>266</v>
-      </c>
-      <c r="CD30" t="s">
-        <v>382</v>
-      </c>
-      <c r="CE30" s="2">
+      <c r="BC31" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>272</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>391</v>
+      </c>
+      <c r="CE31" s="2">
         <v>45850</v>
       </c>
-      <c r="CF30" t="s">
-        <v>301</v>
-      </c>
-      <c r="CG30" t="s">
-        <v>301</v>
-      </c>
-      <c r="CH30" t="s">
-        <v>300</v>
-      </c>
-      <c r="CI30" s="3">
+      <c r="CF31" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG31" t="s">
+        <v>308</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>308</v>
+      </c>
+      <c r="CI31" s="3">
         <v>45701</v>
       </c>
-      <c r="CJ30" s="3">
+      <c r="CJ31" s="3">
         <v>45790</v>
       </c>
     </row>

--- a/delinquency.xlsx
+++ b/delinquency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="417">
   <si>
     <t>office</t>
   </si>
@@ -346,12 +346,18 @@
     <t>Anse A Galet</t>
   </si>
   <si>
+    <t>Croix-Des-Bouquets</t>
+  </si>
+  <si>
     <t>Delmas</t>
   </si>
   <si>
     <t>Petion-Ville</t>
   </si>
   <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
     <t>Tabarre</t>
   </si>
   <si>
@@ -388,12 +394,18 @@
     <t>1ère Palma</t>
   </si>
   <si>
+    <t>1ère Varreux</t>
+  </si>
+  <si>
     <t>1ère Saint martin</t>
   </si>
   <si>
     <t>7ème Bellevue Chardonnière</t>
   </si>
   <si>
+    <t>6ème Turgeau</t>
+  </si>
+  <si>
     <t>4ème Bellevue</t>
   </si>
   <si>
@@ -439,6 +451,9 @@
     <t>Hôpital Wesleyen de la Gonave</t>
   </si>
   <si>
+    <t>Hopital Foyer Saint-Camille</t>
+  </si>
+  <si>
     <t>Centre de Santé de Petite Place Cazeau</t>
   </si>
   <si>
@@ -451,12 +466,12 @@
     <t>Hôpital de la Communauté Haïtienne</t>
   </si>
   <si>
+    <t>St. Francoise de Sales</t>
+  </si>
+  <si>
     <t>Hôpital Saint Damien NOS PETITS FRERES ET SOEURS (NPFS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Institut de Dermatologie et des Maladies Infectieuses </t>
-  </si>
-  <si>
     <t>CAP/CDSF/ST00592</t>
   </si>
   <si>
@@ -472,6 +487,9 @@
     <t>CAP/SECH/ST00833</t>
   </si>
   <si>
+    <t>MCH/HCHM/ST02047</t>
+  </si>
+  <si>
     <t>MCH/HCHM/ST02447</t>
   </si>
   <si>
@@ -484,10 +502,13 @@
     <t>ENN/HTLO/ST00679</t>
   </si>
   <si>
+    <t>GON/CSFA/ST01097</t>
+  </si>
+  <si>
     <t>GON/CSFA/ST01470</t>
   </si>
   <si>
-    <t>GON/CSFA/ST01097</t>
+    <t>GON/CSFA/ST01200</t>
   </si>
   <si>
     <t>GON/CDIR/ST02441</t>
@@ -502,16 +523,25 @@
     <t>GRO/HAMG/ST00649</t>
   </si>
   <si>
+    <t>SMA/CSSM/ST01254</t>
+  </si>
+  <si>
     <t>SMA/CSSM/ST00620</t>
   </si>
   <si>
     <t>SMA/CSSM/ST00986</t>
   </si>
   <si>
+    <t>STM/CSPP/ST02486</t>
+  </si>
+  <si>
     <t>STM/CSPP/ST02015</t>
   </si>
   <si>
-    <t>STM/CSPP/ST02486</t>
+    <t>LAG/HWLG/ST01571</t>
+  </si>
+  <si>
+    <t>LAG/HWLG/ST01655</t>
   </si>
   <si>
     <t>LAG/HWLG/ST00813</t>
@@ -520,10 +550,7 @@
     <t>LAG/HWLG/ST01322</t>
   </si>
   <si>
-    <t>LAG/HWLG/ST01655</t>
-  </si>
-  <si>
-    <t>LAG/HWLG/ST01571</t>
+    <t>PAP/HFSC/ST04820</t>
   </si>
   <si>
     <t>PAP/CMSP/ST00614</t>
@@ -541,12 +568,12 @@
     <t>PAP/HOCH/ST00038</t>
   </si>
   <si>
+    <t>PAP/HSFS/ST01028</t>
+  </si>
+  <si>
     <t>PAP/NPFS/ST04120</t>
   </si>
   <si>
-    <t>PAP/OMFP/ST05211</t>
-  </si>
-  <si>
     <t>CAP/CDSF</t>
   </si>
   <si>
@@ -589,6 +616,9 @@
     <t>LAG/HWLG</t>
   </si>
   <si>
+    <t>PAP/HFSC</t>
+  </si>
+  <si>
     <t>PAP/CMSP</t>
   </si>
   <si>
@@ -601,12 +631,12 @@
     <t>PAP/HOCH</t>
   </si>
   <si>
+    <t>PAP/HSFS</t>
+  </si>
+  <si>
     <t>PAP/NPFS</t>
   </si>
   <si>
-    <t>PAP/OMFP</t>
-  </si>
-  <si>
     <t>Iliona</t>
   </si>
   <si>
@@ -622,6 +652,9 @@
     <t>Didier</t>
   </si>
   <si>
+    <t>Alcinette</t>
+  </si>
+  <si>
     <t>Francia</t>
   </si>
   <si>
@@ -634,10 +667,13 @@
     <t>Altanania</t>
   </si>
   <si>
+    <t>Dieugrace</t>
+  </si>
+  <si>
     <t>Mercilia</t>
   </si>
   <si>
-    <t>Dieugrace</t>
+    <t>Isemane</t>
   </si>
   <si>
     <t>Angelène</t>
@@ -652,16 +688,25 @@
     <t>EXILIA</t>
   </si>
   <si>
+    <t>Antonia</t>
+  </si>
+  <si>
     <t>Solange</t>
   </si>
   <si>
     <t>Rosemartha</t>
   </si>
   <si>
+    <t>Pierre</t>
+  </si>
+  <si>
     <t>Eveline</t>
   </si>
   <si>
-    <t>Pierre</t>
+    <t xml:space="preserve">Judette </t>
+  </si>
+  <si>
+    <t>Joinica</t>
   </si>
   <si>
     <t>Melissa</t>
@@ -670,10 +715,7 @@
     <t xml:space="preserve">Evanesque </t>
   </si>
   <si>
-    <t>Joinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judette </t>
+    <t>Roselene</t>
   </si>
   <si>
     <t>Rosita</t>
@@ -691,12 +733,12 @@
     <t>Nadège</t>
   </si>
   <si>
+    <t>Carole</t>
+  </si>
+  <si>
     <t>Duclos</t>
   </si>
   <si>
-    <t>Darline</t>
-  </si>
-  <si>
     <t>Francois</t>
   </si>
   <si>
@@ -712,6 +754,9 @@
     <t>Myrlande</t>
   </si>
   <si>
+    <t>Casimir</t>
+  </si>
+  <si>
     <t>Mauristin</t>
   </si>
   <si>
@@ -721,10 +766,13 @@
     <t>Sime</t>
   </si>
   <si>
+    <t>Cetoute</t>
+  </si>
+  <si>
     <t>Ferdinand</t>
   </si>
   <si>
-    <t>Cetoute</t>
+    <t>Acelus</t>
   </si>
   <si>
     <t>Azema</t>
@@ -739,16 +787,25 @@
     <t>RICHE</t>
   </si>
   <si>
+    <t>Charles</t>
+  </si>
+  <si>
     <t>Elie</t>
   </si>
   <si>
     <t>Merveus</t>
   </si>
   <si>
+    <t>Sheilla</t>
+  </si>
+  <si>
     <t>PIERRE</t>
   </si>
   <si>
-    <t>Sheilla</t>
+    <t>LAURENT</t>
+  </si>
+  <si>
+    <t>JEAN</t>
   </si>
   <si>
     <t>Belfort</t>
@@ -757,10 +814,7 @@
     <t>Nicolas</t>
   </si>
   <si>
-    <t>JEAN</t>
-  </si>
-  <si>
-    <t>LAURENT</t>
+    <t>Cenat</t>
   </si>
   <si>
     <t>Merisier</t>
@@ -794,6 +848,10 @@
     <t>Camp-Coq nan marguerite, bo pye mapou a</t>
   </si>
   <si>
+    <t>4e Section_x000D_
+Poste Pierrot   Perodin</t>
+  </si>
+  <si>
     <t>Innocent bo kay EKA</t>
   </si>
   <si>
@@ -803,10 +861,10 @@
     <t>Dubedou</t>
   </si>
   <si>
+    <t>Boukan Toman Bayonnais</t>
+  </si>
+  <si>
     <t>Bayonnais</t>
-  </si>
-  <si>
-    <t>Boukan Toman Bayonnais</t>
   </si>
   <si>
     <t>Bas Jubilé</t>
@@ -822,6 +880,9 @@
     <t>K-MADAM,RAVINE GROS MORNE FACE L EAU TRAITEE</t>
   </si>
   <si>
+    <t>Camathe</t>
+  </si>
+  <si>
     <t>Licanta pi haut eglise pasteur Dieuseul_x000D_
 Platana</t>
   </si>
@@ -835,6 +896,9 @@
     <t>nan mapou</t>
   </si>
   <si>
+    <t>Lilavois 49</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -850,9 +914,6 @@
     <t>Jaquet Toto</t>
   </si>
   <si>
-    <t>Nazon, Caravelle prolonge  ruelle sylvia #7</t>
-  </si>
-  <si>
     <t>autres</t>
   </si>
   <si>
@@ -874,6 +935,9 @@
     <t>48697228</t>
   </si>
   <si>
+    <t>50935479898</t>
+  </si>
+  <si>
     <t>33924464</t>
   </si>
   <si>
@@ -907,6 +971,9 @@
     <t>31559104</t>
   </si>
   <si>
+    <t>42545342</t>
+  </si>
+  <si>
     <t>48650932</t>
   </si>
   <si>
@@ -916,9 +983,6 @@
     <t>47377458</t>
   </si>
   <si>
-    <t>44176808</t>
-  </si>
-  <si>
     <t>50931516873</t>
   </si>
   <si>
@@ -961,6 +1025,9 @@
     <t>lauriers</t>
   </si>
   <si>
+    <t>Excelsior IV</t>
+  </si>
+  <si>
     <t>Claire Heureuse</t>
   </si>
   <si>
@@ -985,21 +1052,27 @@
     <t>ETOILES DE GROS-MORNE</t>
   </si>
   <si>
+    <t>Ambassadrice 4</t>
+  </si>
+  <si>
     <t>Fanm Vanyan de SMA</t>
   </si>
   <si>
     <t>Ambassadrice 3</t>
   </si>
   <si>
+    <t>Femmes courageuses de Pierre Payen</t>
+  </si>
+  <si>
     <t>Tet ansanb</t>
   </si>
   <si>
-    <t>Femmes courageuses de Pierre Payen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Femmes solides </t>
   </si>
   <si>
+    <t>Esperanza</t>
+  </si>
+  <si>
     <t>Cassiopee</t>
   </si>
   <si>
@@ -1015,12 +1088,12 @@
     <t>les pionnieres de la victoire</t>
   </si>
   <si>
+    <t>Alliance</t>
+  </si>
+  <si>
     <t>Pierres Precieuses</t>
   </si>
   <si>
-    <t>Résistance 3</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -1129,6 +1202,9 @@
     <t>2025-07-08</t>
   </si>
   <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
     <t>2024-11-22</t>
   </si>
   <si>
@@ -1141,10 +1217,13 @@
     <t>2024-12-06</t>
   </si>
   <si>
+    <t>2024-03-31</t>
+  </si>
+  <si>
     <t>2025-07-06</t>
   </si>
   <si>
-    <t>2024-03-31</t>
+    <t>2025-07-22</t>
   </si>
   <si>
     <t>2025-06-22</t>
@@ -1165,10 +1244,16 @@
     <t>2025-01-31</t>
   </si>
   <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
     <t>2025-07-13</t>
   </si>
   <si>
-    <t>2025-07-09</t>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
   </si>
   <si>
     <t>2025-04-20</t>
@@ -1177,12 +1262,6 @@
     <t>2025-07-03</t>
   </si>
   <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
     <t>2024-12-02</t>
   </si>
   <si>
@@ -1190,9 +1269,6 @@
   </si>
   <si>
     <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>2025-07-12</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CJ31"/>
+  <dimension ref="A1:CJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1827,7 +1903,7 @@
     </row>
     <row r="2" spans="1:88">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -1842,28 +1918,28 @@
         <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H2">
         <v>43920</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J2" s="2">
         <v>43525.67803240741</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="N2" s="3">
         <v>32403</v>
@@ -1872,37 +1948,37 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="Q2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="R2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X2" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Y2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z2" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -1923,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="AO2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP2" s="3">
         <v>45763</v>
       </c>
       <c r="AQ2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR2" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="AY2" s="3">
         <v>45418</v>
@@ -1947,10 +2023,10 @@
         <v>45429.55692129629</v>
       </c>
       <c r="BC2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BD2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="BE2" s="3">
         <v>45394</v>
@@ -1959,73 +2035,73 @@
         <v>10</v>
       </c>
       <c r="BG2" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="BH2" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="BI2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="BJ2" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="BK2" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="BL2">
         <v>1</v>
       </c>
       <c r="BM2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN2" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BO2" s="3">
         <v>45440</v>
       </c>
       <c r="BP2" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="BQ2" s="3">
         <v>45490</v>
       </c>
       <c r="BR2" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="BU2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BV2" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="BX2" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="BY2" s="3">
         <v>44166</v>
       </c>
       <c r="CA2" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="CC2" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="CD2" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="CE2" s="2">
         <v>45418</v>
       </c>
       <c r="CF2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="CG2" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH2" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI2" s="3">
         <v>45708</v>
@@ -2036,7 +2112,7 @@
     </row>
     <row r="3" spans="1:88">
       <c r="A3" s="1">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -2051,28 +2127,28 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H3">
         <v>187714</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J3" s="2">
         <v>45348.70815972222</v>
       </c>
       <c r="K3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="N3" s="3">
         <v>34151</v>
@@ -2081,37 +2157,37 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="Q3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="R3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z3" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="AB3">
         <v>1</v>
@@ -2123,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2135,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="AO3" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP3" s="3">
         <v>45618</v>
       </c>
       <c r="AQ3" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR3" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="AW3">
         <v>1</v>
@@ -2162,42 +2238,42 @@
         <v>45348.7141087963</v>
       </c>
       <c r="BC3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM3" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC3" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD3" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="CE3" s="2">
         <v>45373</v>
       </c>
       <c r="CF3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI3" s="3">
         <v>45377</v>
       </c>
       <c r="CJ3" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:88">
       <c r="A4" s="1">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -2212,28 +2288,28 @@
         <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H4">
         <v>26634</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J4" s="2">
         <v>42562.60099537037</v>
       </c>
       <c r="K4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L4" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M4" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="N4" s="3">
         <v>27701</v>
@@ -2242,37 +2318,37 @@
         <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="Q4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="R4" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X4" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Y4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z4" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -2284,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -2296,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP4" s="3">
         <v>45776</v>
       </c>
       <c r="AQ4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR4" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="AY4" s="3">
         <v>45540</v>
@@ -2320,10 +2396,10 @@
         <v>45422.63403935185</v>
       </c>
       <c r="BC4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BD4" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="BE4" s="3">
         <v>45490</v>
@@ -2332,81 +2408,81 @@
         <v>10</v>
       </c>
       <c r="BG4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="BH4" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="BI4" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="BJ4" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="BK4" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="BL4">
         <v>1</v>
       </c>
       <c r="BM4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN4" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BO4" s="3">
         <v>45533</v>
       </c>
       <c r="BQ4" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="BR4" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="BU4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BV4" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="BX4" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="BY4" s="3">
         <v>44162</v>
       </c>
       <c r="CA4" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="CC4" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="CD4" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="CE4" s="2">
         <v>45570</v>
       </c>
       <c r="CF4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="CG4" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH4" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI4" s="3">
         <v>45408</v>
       </c>
       <c r="CJ4" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:88">
       <c r="A5" s="1">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -2421,28 +2497,28 @@
         <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H5">
         <v>209301</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J5" s="2">
         <v>45832.54972222223</v>
       </c>
       <c r="K5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="L5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="M5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="N5" s="3">
         <v>31818</v>
@@ -2451,37 +2527,37 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="R5" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z5" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="AB5">
         <v>1</v>
@@ -2502,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="AO5" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP5" s="3">
         <v>45818</v>
       </c>
       <c r="AQ5" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR5" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="AY5" s="3">
         <v>45693</v>
@@ -2526,36 +2602,36 @@
         <v>45832.55387731481</v>
       </c>
       <c r="BC5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM5" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC5" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD5" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="CE5" s="2">
         <v>45843</v>
       </c>
       <c r="CF5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:88">
       <c r="A6" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -2570,28 +2646,28 @@
         <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H6">
         <v>204117</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J6" s="2">
         <v>45741.53994212963</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L6" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="M6" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="N6" s="3">
         <v>33496</v>
@@ -2600,37 +2676,37 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="Q6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="R6" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AA6" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -2648,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="AO6" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP6" s="3">
         <v>45805</v>
       </c>
       <c r="AQ6" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR6" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="AW6">
         <v>1</v>
@@ -2675,31 +2751,31 @@
         <v>45749.5670949074</v>
       </c>
       <c r="BC6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM6" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC6" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD6" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="CE6" s="2">
         <v>45846</v>
       </c>
       <c r="CF6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI6" s="3">
         <v>45726</v>
@@ -2710,7 +2786,7 @@
     </row>
     <row r="7" spans="1:88">
       <c r="A7" s="1">
-        <v>1123</v>
+        <v>1095</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -2725,73 +2801,73 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H7">
-        <v>194528</v>
+        <v>107849</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J7" s="2">
-        <v>45489.76224537037</v>
+        <v>44291.73622685186</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="N7" s="3">
-        <v>32119</v>
+        <v>35978</v>
       </c>
       <c r="O7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="Q7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z7" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
       <c r="AC7" s="3">
-        <v>45474</v>
+        <v>45713</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2806,183 +2882,147 @@
         <v>0</v>
       </c>
       <c r="AO7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP7" s="3">
         <v>45750</v>
       </c>
       <c r="AQ7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="AW7">
         <v>1</v>
       </c>
       <c r="AY7" s="3">
-        <v>45618</v>
+        <v>45853</v>
       </c>
       <c r="AZ7" s="3">
-        <v>45268</v>
+        <v>45587</v>
       </c>
       <c r="BA7" s="3">
-        <v>45474</v>
+        <v>45713</v>
       </c>
       <c r="BB7" s="2">
-        <v>45489.76390046296</v>
+        <v>45727.71408564815</v>
       </c>
       <c r="BC7" t="s">
-        <v>307</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>339</v>
-      </c>
-      <c r="BE7" s="3">
-        <v>45550</v>
-      </c>
-      <c r="BF7">
-        <v>11</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>343</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>344</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>346</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>348</v>
-      </c>
-      <c r="BL7">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="BM7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN7" t="s">
-        <v>308</v>
-      </c>
-      <c r="BO7" s="3">
-        <v>45580</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>304</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="CC7" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="CD7" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="CE7" s="2">
-        <v>45550</v>
+        <v>45867</v>
       </c>
       <c r="CF7" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="CG7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="CI7" s="3">
-        <v>45561</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>304</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="8" spans="1:88">
       <c r="A8" s="1">
-        <v>1144</v>
+        <v>1111</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H8">
-        <v>201257</v>
+        <v>194528</v>
       </c>
       <c r="I8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J8" s="2">
-        <v>45680.79515046296</v>
+        <v>45489.76224537037</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="N8" s="3">
-        <v>33691</v>
+        <v>32119</v>
       </c>
       <c r="O8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="Q8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="R8" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y8" t="s">
-        <v>279</v>
+        <v>299</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>306</v>
       </c>
       <c r="AB8">
         <v>1</v>
       </c>
       <c r="AC8" s="3">
-        <v>45642</v>
+        <v>45474</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2997,72 +3037,105 @@
         <v>0</v>
       </c>
       <c r="AO8" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP8" s="3">
-        <v>45729</v>
+        <v>45750</v>
       </c>
       <c r="AQ8" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR8" t="s">
-        <v>315</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>334</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AW8">
         <v>1</v>
       </c>
       <c r="AY8" s="3">
-        <v>45839</v>
+        <v>45618</v>
       </c>
       <c r="AZ8" s="3">
-        <v>45569</v>
+        <v>45268</v>
       </c>
       <c r="BA8" s="3">
-        <v>45642</v>
+        <v>45474</v>
       </c>
       <c r="BB8" s="2">
-        <v>45680.86460648148</v>
+        <v>45489.76390046296</v>
       </c>
       <c r="BC8" t="s">
-        <v>308</v>
+        <v>328</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>363</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>45550</v>
+      </c>
+      <c r="BF8">
+        <v>11</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>367</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>368</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
       </c>
       <c r="BM8" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN8" t="s">
-        <v>308</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>358</v>
+        <v>329</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>45580</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>325</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>374</v>
       </c>
       <c r="CC8" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="CD8" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="CE8" s="2">
-        <v>45849</v>
+        <v>45550</v>
       </c>
       <c r="CF8" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="CG8" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH8" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CI8" s="3">
+        <v>45561</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:88">
       <c r="A9" s="1">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -3077,73 +3150,70 @@
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H9">
-        <v>29502</v>
+        <v>201257</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J9" s="2">
-        <v>42765.62567129629</v>
+        <v>45680.79515046296</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M9" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="N9" s="3">
-        <v>30331</v>
+        <v>33691</v>
       </c>
       <c r="O9">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="Q9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R9" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S9" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="T9" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="U9" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="V9" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W9" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X9" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y9" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="AB9">
         <v>1</v>
       </c>
       <c r="AC9" s="3">
-        <v>45341</v>
+        <v>45642</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -3158,84 +3228,72 @@
         <v>0</v>
       </c>
       <c r="AO9" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP9" s="3">
         <v>45729</v>
       </c>
       <c r="AQ9" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR9" t="s">
-        <v>316</v>
+        <v>337</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>359</v>
       </c>
       <c r="AW9">
         <v>1</v>
       </c>
       <c r="AY9" s="3">
-        <v>45465</v>
+        <v>45839</v>
       </c>
       <c r="AZ9" s="3">
-        <v>45179</v>
+        <v>45569</v>
       </c>
       <c r="BA9" s="3">
-        <v>45341</v>
+        <v>45642</v>
       </c>
       <c r="BB9" s="2">
-        <v>45415.80556712963</v>
+        <v>45680.86460648148</v>
       </c>
       <c r="BC9" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM9" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN9" t="s">
-        <v>308</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>154</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>351</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>355</v>
-      </c>
-      <c r="BY9" s="3">
-        <v>44061</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>357</v>
+        <v>329</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>382</v>
       </c>
       <c r="CC9" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD9" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="CE9" s="2">
-        <v>45460</v>
+        <v>45849</v>
       </c>
       <c r="CF9" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG9" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH9" t="s">
-        <v>308</v>
-      </c>
-      <c r="CI9" s="3">
-        <v>45729</v>
-      </c>
-      <c r="CJ9" s="3">
-        <v>45945</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:88">
       <c r="A10" s="1">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -3250,73 +3308,73 @@
         <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H10">
-        <v>174052</v>
+        <v>29502</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J10" s="2">
-        <v>44966.78353009259</v>
+        <v>42765.62567129629</v>
       </c>
       <c r="K10" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M10" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="N10" s="3">
-        <v>32940</v>
+        <v>30331</v>
       </c>
       <c r="O10">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="Q10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R10" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S10" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="T10" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="U10" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="V10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z10" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="AB10">
         <v>1</v>
       </c>
       <c r="AC10" s="3">
-        <v>44945</v>
+        <v>45341</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -3331,75 +3389,90 @@
         <v>0</v>
       </c>
       <c r="AO10" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP10" s="3">
         <v>45729</v>
       </c>
       <c r="AQ10" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR10" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AW10">
         <v>1</v>
       </c>
       <c r="AY10" s="3">
-        <v>45574</v>
+        <v>45465</v>
       </c>
       <c r="AZ10" s="3">
-        <v>45351</v>
+        <v>45179</v>
       </c>
       <c r="BA10" s="3">
-        <v>45379</v>
+        <v>45341</v>
       </c>
       <c r="BB10" s="2">
-        <v>45429.79835648148</v>
+        <v>45415.80556712963</v>
       </c>
       <c r="BC10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM10" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN10" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>160</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>375</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>379</v>
+      </c>
+      <c r="BY10" s="3">
+        <v>44061</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>381</v>
       </c>
       <c r="CC10" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD10" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="CE10" s="2">
-        <v>45632</v>
+        <v>45460</v>
       </c>
       <c r="CF10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI10" s="3">
         <v>45729</v>
       </c>
       <c r="CJ10" s="3">
-        <v>45946</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="11" spans="1:88">
       <c r="A11" s="1">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
@@ -3408,73 +3481,73 @@
         <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H11">
-        <v>199552</v>
+        <v>174052</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J11" s="2">
-        <v>45618.59185185185</v>
+        <v>44966.78353009259</v>
       </c>
       <c r="K11" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L11" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M11" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="N11" s="3">
-        <v>32566</v>
+        <v>32940</v>
       </c>
       <c r="O11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="Q11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R11" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="T11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="U11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="V11" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W11" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X11" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y11" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="AB11">
         <v>1</v>
       </c>
       <c r="AC11" s="3">
-        <v>45617</v>
+        <v>44945</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -3489,69 +3562,69 @@
         <v>0</v>
       </c>
       <c r="AO11" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP11" s="3">
-        <v>45757</v>
+        <v>45729</v>
       </c>
       <c r="AQ11" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR11" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="AW11">
         <v>1</v>
       </c>
       <c r="AY11" s="3">
-        <v>45818</v>
+        <v>45574</v>
       </c>
       <c r="AZ11" s="3">
-        <v>45564</v>
+        <v>45351</v>
       </c>
       <c r="BA11" s="3">
-        <v>45617</v>
+        <v>45379</v>
       </c>
       <c r="BB11" s="2">
-        <v>45618.59543981482</v>
+        <v>45429.79835648148</v>
       </c>
       <c r="BC11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM11" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC11" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD11" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="CE11" s="2">
-        <v>45844</v>
+        <v>45632</v>
       </c>
       <c r="CF11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI11" s="3">
-        <v>45723</v>
+        <v>45729</v>
       </c>
       <c r="CJ11" s="3">
-        <v>45989</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="12" spans="1:88">
       <c r="A12" s="1">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -3566,28 +3639,28 @@
         <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>197556</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J12" s="2">
         <v>45590.5246412037</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="M12" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="N12" s="3">
         <v>30945</v>
@@ -3596,34 +3669,34 @@
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="Q12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="R12" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S12" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="T12" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="U12" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="V12" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W12" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X12" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y12" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AB12">
         <v>1</v>
@@ -3644,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="AO12" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP12" s="3">
         <v>45757</v>
       </c>
       <c r="AQ12" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR12" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="AW12">
         <v>1</v>
@@ -3671,31 +3744,31 @@
         <v>45705.77799768518</v>
       </c>
       <c r="BC12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM12" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC12" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD12" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="CE12" s="2">
         <v>45382</v>
       </c>
       <c r="CF12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI12" s="3">
         <v>45729</v>
@@ -3706,88 +3779,88 @@
     </row>
     <row r="13" spans="1:88">
       <c r="A13" s="1">
-        <v>1204</v>
+        <v>1175</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H13">
-        <v>204291</v>
+        <v>199552</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J13" s="2">
-        <v>45743.79086805556</v>
+        <v>45618.59185185185</v>
       </c>
       <c r="K13" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L13" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M13" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="N13" s="3">
-        <v>38637</v>
+        <v>32566</v>
       </c>
       <c r="O13">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="Q13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R13" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S13" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="T13" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="U13" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="V13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z13" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="AB13">
         <v>1</v>
       </c>
       <c r="AC13" s="3">
-        <v>45712</v>
+        <v>45617</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -3802,63 +3875,69 @@
         <v>0</v>
       </c>
       <c r="AO13" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP13" s="3">
-        <v>45854</v>
+        <v>45757</v>
       </c>
       <c r="AQ13" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR13" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="AW13">
         <v>1</v>
       </c>
       <c r="AY13" s="3">
-        <v>45830</v>
+        <v>45818</v>
       </c>
       <c r="AZ13" s="3">
-        <v>45550</v>
+        <v>45564</v>
       </c>
       <c r="BA13" s="3">
-        <v>45712</v>
+        <v>45617</v>
       </c>
       <c r="BB13" s="2">
-        <v>45743.79511574074</v>
+        <v>45618.59543981482</v>
       </c>
       <c r="BC13" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM13" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN13" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC13" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD13" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="CE13" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="CF13" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG13" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH13" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CI13" s="3">
+        <v>45723</v>
+      </c>
+      <c r="CJ13" s="3">
+        <v>45989</v>
       </c>
     </row>
     <row r="14" spans="1:88">
       <c r="A14" s="1">
-        <v>1332</v>
+        <v>1176</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -3870,79 +3949,73 @@
         <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H14">
-        <v>49927</v>
+        <v>202466</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J14" s="2">
-        <v>43816.66765046296</v>
+        <v>45713.70381944445</v>
       </c>
       <c r="K14" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L14" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M14" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="N14" s="3">
-        <v>31890</v>
+        <v>30147</v>
       </c>
       <c r="O14">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="Q14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R14" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y14" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AB14">
         <v>1</v>
       </c>
       <c r="AC14" s="3">
-        <v>45742</v>
+        <v>45708</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -3957,93 +4030,69 @@
         <v>0</v>
       </c>
       <c r="AO14" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP14" s="3">
-        <v>45854</v>
+        <v>45729</v>
       </c>
       <c r="AQ14" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR14" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="AW14">
         <v>1</v>
       </c>
       <c r="AY14" s="3">
-        <v>45799</v>
+        <v>45860</v>
       </c>
       <c r="AZ14" s="3">
-        <v>45519</v>
+        <v>45580</v>
       </c>
       <c r="BA14" s="3">
-        <v>45742</v>
+        <v>45708</v>
       </c>
       <c r="BB14" s="2">
-        <v>45744.6271875</v>
+        <v>45713.70552083333</v>
       </c>
       <c r="BC14" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM14" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN14" t="s">
-        <v>308</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>159</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>351</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>356</v>
-      </c>
-      <c r="BY14" s="3">
-        <v>43963</v>
-      </c>
-      <c r="BZ14" s="3">
-        <v>43863</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="CC14" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="CD14" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="CE14" s="2">
-        <v>45799</v>
+        <v>45860</v>
       </c>
       <c r="CF14" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG14" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH14" t="s">
-        <v>308</v>
-      </c>
-      <c r="CI14" s="3">
-        <v>45625</v>
-      </c>
-      <c r="CJ14" s="3">
-        <v>45821</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:88">
       <c r="A15" s="1">
-        <v>1367</v>
+        <v>1201</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>97</v>
@@ -4052,73 +4101,73 @@
         <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H15">
-        <v>31268</v>
+        <v>204291</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J15" s="2">
-        <v>42858.53824074074</v>
+        <v>45743.79086805556</v>
       </c>
       <c r="K15" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L15" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M15" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="N15" s="3">
-        <v>32918</v>
+        <v>38637</v>
       </c>
       <c r="O15">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P15" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R15" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S15" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="T15" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="U15" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="V15" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W15" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X15" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y15" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z15" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="AB15">
         <v>1</v>
       </c>
       <c r="AC15" s="3">
-        <v>45453</v>
+        <v>45712</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -4130,126 +4179,72 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP15" s="3">
-        <v>45631</v>
+        <v>45854</v>
       </c>
       <c r="AQ15" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR15" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AW15">
         <v>1</v>
       </c>
       <c r="AY15" s="3">
-        <v>45679</v>
+        <v>45830</v>
       </c>
       <c r="AZ15" s="3">
-        <v>45397</v>
+        <v>45550</v>
       </c>
       <c r="BA15" s="3">
-        <v>45453</v>
+        <v>45712</v>
       </c>
       <c r="BB15" s="2">
-        <v>45499.54865740741</v>
+        <v>45743.79511574074</v>
       </c>
       <c r="BC15" t="s">
-        <v>307</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>340</v>
-      </c>
-      <c r="BE15" s="3">
-        <v>45596</v>
-      </c>
-      <c r="BF15">
-        <v>10</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>342</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>344</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>345</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>347</v>
-      </c>
-      <c r="BL15">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="BM15" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN15" t="s">
-        <v>308</v>
-      </c>
-      <c r="BO15" s="3">
-        <v>45644</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>349</v>
-      </c>
-      <c r="BQ15" s="3">
-        <v>45679</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>350</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>160</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>352</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>353</v>
-      </c>
-      <c r="BY15" s="3">
-        <v>44118</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="CC15" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="CD15" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="CE15" s="2">
-        <v>45679</v>
+        <v>45830</v>
       </c>
       <c r="CF15" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="CG15" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH15" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI15" s="3">
-        <v>45644</v>
+        <v>45712</v>
       </c>
       <c r="CJ15" s="3">
-        <v>45749</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="16" spans="1:88">
       <c r="A16" s="1">
-        <v>1480</v>
+        <v>1326</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -4261,301 +4256,259 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H16">
-        <v>28564</v>
+        <v>49927</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J16" s="2">
-        <v>42695.55586805556</v>
+        <v>43816.66765046296</v>
       </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L16" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M16" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="N16" s="3">
-        <v>32485</v>
+        <v>31890</v>
       </c>
       <c r="O16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R16" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S16" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="T16" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="U16" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="V16" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W16" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X16" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y16" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z16" t="s">
-        <v>292</v>
+        <v>311</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>322</v>
       </c>
       <c r="AB16">
         <v>1</v>
       </c>
       <c r="AC16" s="3">
-        <v>45533</v>
+        <v>45742</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
-      <c r="AH16" t="s">
-        <v>272</v>
-      </c>
       <c r="AI16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>44148</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP16" s="3">
-        <v>45764</v>
+        <v>45854</v>
       </c>
       <c r="AQ16" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR16" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="AW16">
         <v>1</v>
       </c>
       <c r="AY16" s="3">
-        <v>45587</v>
+        <v>45799</v>
       </c>
       <c r="AZ16" s="3">
-        <v>45306</v>
+        <v>45519</v>
       </c>
       <c r="BA16" s="3">
-        <v>45533</v>
+        <v>45742</v>
       </c>
       <c r="BB16" s="2">
-        <v>45534.68231481482</v>
+        <v>45744.6271875</v>
       </c>
       <c r="BC16" t="s">
-        <v>307</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>341</v>
-      </c>
-      <c r="BE16" s="3">
-        <v>45557</v>
-      </c>
-      <c r="BF16">
-        <v>10</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>342</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>344</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>346</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>347</v>
-      </c>
-      <c r="BL16">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="BM16" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BO16" s="3">
-        <v>45603</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>304</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="BU16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="BV16" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="BX16" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="BY16" s="3">
-        <v>44146</v>
+        <v>43963</v>
+      </c>
+      <c r="BZ16" s="3">
+        <v>43863</v>
       </c>
       <c r="CA16" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="CC16" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="CD16" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="CE16" s="2">
-        <v>45587</v>
+        <v>45799</v>
       </c>
       <c r="CF16" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="CG16" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH16" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI16" s="3">
-        <v>45667</v>
+        <v>45807</v>
       </c>
       <c r="CJ16" s="3">
-        <v>45818</v>
+        <v>46003</v>
       </c>
     </row>
     <row r="17" spans="1:88">
       <c r="A17" s="1">
-        <v>1619</v>
+        <v>1359</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
         <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H17">
-        <v>36798</v>
+        <v>31268</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J17" s="2">
-        <v>43137.83925925926</v>
+        <v>42858.53824074074</v>
       </c>
       <c r="K17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="M17" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="N17" s="3">
-        <v>32874</v>
+        <v>32918</v>
       </c>
       <c r="O17">
         <v>35</v>
       </c>
       <c r="P17" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Q17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R17" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S17" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="T17" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="U17" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="V17" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W17" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X17" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y17" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z17" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AB17">
         <v>1</v>
       </c>
       <c r="AC17" s="3">
-        <v>45427</v>
+        <v>45453</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
-      <c r="AH17" t="s">
-        <v>272</v>
-      </c>
       <c r="AI17">
         <v>0</v>
       </c>
@@ -4563,248 +4516,344 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP17" s="3">
-        <v>45622</v>
+        <v>45631</v>
       </c>
       <c r="AQ17" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR17" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="AW17">
         <v>1</v>
       </c>
       <c r="AY17" s="3">
-        <v>45495</v>
+        <v>45679</v>
       </c>
       <c r="AZ17" s="3">
-        <v>45214</v>
+        <v>45397</v>
       </c>
       <c r="BA17" s="3">
-        <v>45427</v>
+        <v>45453</v>
       </c>
       <c r="BB17" s="2">
-        <v>45483.59184027778</v>
+        <v>45499.54865740741</v>
       </c>
       <c r="BC17" t="s">
-        <v>308</v>
+        <v>328</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>364</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>45596</v>
+      </c>
+      <c r="BF17">
+        <v>10</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>368</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>369</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>293</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>371</v>
+      </c>
+      <c r="BL17">
+        <v>1</v>
       </c>
       <c r="BM17" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN17" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="BO17" s="3">
+        <v>45644</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>373</v>
+      </c>
+      <c r="BQ17" s="3">
+        <v>45679</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>374</v>
       </c>
       <c r="BU17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="BV17" t="s">
-        <v>351</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>355</v>
+        <v>376</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>377</v>
       </c>
       <c r="BY17" s="3">
-        <v>44152</v>
+        <v>44118</v>
       </c>
       <c r="CA17" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="CC17" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="CD17" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="CE17" s="2">
-        <v>45495</v>
+        <v>45679</v>
       </c>
       <c r="CF17" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="CG17" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH17" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI17" s="3">
-        <v>45134</v>
-      </c>
-      <c r="CJ17" t="s">
-        <v>304</v>
+        <v>45644</v>
+      </c>
+      <c r="CJ17" s="3">
+        <v>45749</v>
       </c>
     </row>
     <row r="18" spans="1:88">
       <c r="A18" s="1">
-        <v>1644</v>
+        <v>1474</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H18">
-        <v>125137</v>
+        <v>28564</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J18" s="2">
-        <v>44468.77130787037</v>
+        <v>42695.55586805556</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M18" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="N18" s="3">
-        <v>33302</v>
+        <v>32485</v>
       </c>
       <c r="O18">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R18" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S18" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="T18" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="U18" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="V18" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W18" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X18" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y18" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z18" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="AB18">
         <v>1</v>
       </c>
       <c r="AC18" s="3">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
+      <c r="AH18" t="s">
+        <v>293</v>
+      </c>
       <c r="AI18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>44148</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP18" s="3">
-        <v>45727</v>
+        <v>45764</v>
       </c>
       <c r="AQ18" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR18" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="AW18">
         <v>1</v>
       </c>
       <c r="AY18" s="3">
-        <v>45688</v>
+        <v>45587</v>
       </c>
       <c r="AZ18" s="3">
-        <v>45406</v>
+        <v>45306</v>
       </c>
       <c r="BA18" s="3">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="BB18" s="2">
-        <v>45692.64329861111</v>
+        <v>45534.68231481482</v>
       </c>
       <c r="BC18" t="s">
-        <v>308</v>
+        <v>328</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>365</v>
+      </c>
+      <c r="BE18" s="3">
+        <v>45557</v>
+      </c>
+      <c r="BF18">
+        <v>10</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>368</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>370</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>293</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>371</v>
+      </c>
+      <c r="BL18">
+        <v>1</v>
       </c>
       <c r="BM18" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN18" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="BO18" s="3">
+        <v>45603</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>325</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>374</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>375</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>378</v>
+      </c>
+      <c r="BY18" s="3">
+        <v>44146</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>381</v>
       </c>
       <c r="CC18" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="CD18" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="CE18" s="2">
-        <v>45688</v>
+        <v>45587</v>
       </c>
       <c r="CF18" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="CG18" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH18" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI18" s="3">
-        <v>45348</v>
+        <v>45667</v>
       </c>
       <c r="CJ18" s="3">
-        <v>45863</v>
+        <v>45818</v>
       </c>
     </row>
     <row r="19" spans="1:88">
       <c r="A19" s="1">
-        <v>1689</v>
+        <v>1560</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>90</v>
@@ -4813,70 +4862,73 @@
         <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H19">
-        <v>106990</v>
+        <v>204369</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J19" s="2">
-        <v>44262.65186342593</v>
+        <v>45744.67241898148</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="N19" s="3">
-        <v>36357</v>
+        <v>33773</v>
       </c>
       <c r="O19">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="P19" t="s">
+        <v>287</v>
       </c>
       <c r="Q19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="R19" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AB19">
         <v>1</v>
       </c>
       <c r="AC19" s="3">
-        <v>44249</v>
+        <v>45743</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -4891,63 +4943,66 @@
         <v>0</v>
       </c>
       <c r="AO19" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP19" s="3">
-        <v>45799</v>
+        <v>45832</v>
       </c>
       <c r="AQ19" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR19" t="s">
-        <v>324</v>
+        <v>344</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
       </c>
       <c r="AY19" s="3">
-        <v>45849</v>
+        <v>45860</v>
       </c>
       <c r="AZ19" s="3">
-        <v>45571</v>
+        <v>45580</v>
       </c>
       <c r="BA19" s="3">
-        <v>45645</v>
+        <v>45743</v>
       </c>
       <c r="BB19" s="2">
-        <v>45792.62974537037</v>
+        <v>45744.67391203704</v>
       </c>
       <c r="BC19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM19" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC19" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD19" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="CE19" s="2">
-        <v>45851</v>
+        <v>45860</v>
       </c>
       <c r="CF19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:88">
       <c r="A20" s="1">
-        <v>1709</v>
+        <v>1595</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
         <v>90</v>
@@ -4956,80 +5011,86 @@
         <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H20">
-        <v>201086</v>
+        <v>36798</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="J20" s="2">
-        <v>45646.6363425926</v>
+        <v>43137.83925925926</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="N20" s="3">
-        <v>34740</v>
+        <v>32874</v>
       </c>
       <c r="O20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P20" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="Q20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="R20" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z20" t="s">
-        <v>295</v>
+        <v>314</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>323</v>
       </c>
       <c r="AB20">
         <v>1</v>
       </c>
       <c r="AC20" s="3">
-        <v>45646</v>
+        <v>45427</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
+      <c r="AH20" t="s">
+        <v>293</v>
+      </c>
       <c r="AI20">
         <v>0</v>
       </c>
@@ -5040,147 +5101,165 @@
         <v>0</v>
       </c>
       <c r="AO20" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP20" s="3">
-        <v>45757</v>
+        <v>45622</v>
       </c>
       <c r="AQ20" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR20" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>334</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AW20">
         <v>1</v>
       </c>
       <c r="AY20" s="3">
-        <v>45847</v>
+        <v>45495</v>
       </c>
       <c r="AZ20" s="3">
-        <v>45567</v>
+        <v>45214</v>
       </c>
       <c r="BA20" s="3">
-        <v>45637</v>
+        <v>45427</v>
       </c>
       <c r="BB20" s="2">
-        <v>45646.63934027778</v>
+        <v>45483.59184027778</v>
       </c>
       <c r="BC20" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM20" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN20" t="s">
-        <v>308</v>
-      </c>
-      <c r="CB20" t="s">
-        <v>358</v>
+        <v>329</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>170</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>375</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>379</v>
+      </c>
+      <c r="BY20" s="3">
+        <v>44152</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>381</v>
       </c>
       <c r="CC20" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD20" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="CE20" s="2">
-        <v>45847</v>
+        <v>45495</v>
       </c>
       <c r="CF20" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG20" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH20" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CI20" s="3">
+        <v>45134</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:88">
       <c r="A21" s="1">
-        <v>1726</v>
+        <v>1611</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21">
-        <v>24009</v>
+        <v>125137</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J21" s="2">
-        <v>42411.69771990741</v>
+        <v>44468.77130787037</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="N21" s="3">
-        <v>36255</v>
+        <v>33302</v>
       </c>
       <c r="O21">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="P21" t="s">
+        <v>289</v>
       </c>
       <c r="Q21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R21" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y21" t="s">
-        <v>279</v>
+        <v>299</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>315</v>
       </c>
       <c r="AB21">
         <v>1</v>
       </c>
-      <c r="AC21" t="s">
-        <v>304</v>
+      <c r="AC21" s="3">
+        <v>45528</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -5195,132 +5274,150 @@
         <v>0</v>
       </c>
       <c r="AO21" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP21" s="3">
-        <v>45730</v>
+        <v>45727</v>
       </c>
       <c r="AQ21" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR21" t="s">
-        <v>326</v>
+        <v>346</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
       </c>
       <c r="AY21" s="3">
-        <v>45767</v>
+        <v>45688</v>
       </c>
       <c r="AZ21" s="3">
-        <v>45486</v>
+        <v>45406</v>
       </c>
       <c r="BA21" s="3">
-        <v>45561</v>
+        <v>45528</v>
       </c>
       <c r="BB21" s="2">
-        <v>45770.62432870371</v>
+        <v>45692.64329861111</v>
       </c>
       <c r="BC21" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM21" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="BN21" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC21" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD21" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="CE21" s="2">
-        <v>45767</v>
+        <v>45688</v>
       </c>
       <c r="CF21" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG21" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH21" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CI21" s="3">
+        <v>45348</v>
+      </c>
+      <c r="CJ21" s="3">
+        <v>45863</v>
       </c>
     </row>
     <row r="22" spans="1:88">
       <c r="A22" s="1">
-        <v>1729</v>
+        <v>1682</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H22">
-        <v>105496</v>
+        <v>201086</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J22" s="2">
-        <v>44187.98162037037</v>
+        <v>45646.6363425926</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="N22" s="3">
-        <v>34700</v>
+        <v>34740</v>
       </c>
       <c r="O22">
         <v>30</v>
       </c>
+      <c r="P22" t="s">
+        <v>290</v>
+      </c>
       <c r="Q22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R22" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y22" t="s">
-        <v>279</v>
+        <v>299</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>316</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>45646</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -5335,141 +5432,147 @@
         <v>0</v>
       </c>
       <c r="AO22" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP22" s="3">
-        <v>45819</v>
+        <v>45757</v>
       </c>
       <c r="AQ22" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR22" t="s">
-        <v>326</v>
+        <v>347</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
       </c>
       <c r="AY22" s="3">
-        <v>45827</v>
+        <v>45847</v>
       </c>
       <c r="AZ22" s="3">
-        <v>45561</v>
+        <v>45567</v>
       </c>
       <c r="BA22" s="3">
-        <v>45596</v>
+        <v>45637</v>
       </c>
       <c r="BB22" s="2">
-        <v>45770.62298611111</v>
+        <v>45646.63934027778</v>
       </c>
       <c r="BC22" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM22" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN22" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>382</v>
       </c>
       <c r="CC22" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD22" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="CE22" s="2">
-        <v>45841</v>
+        <v>45847</v>
       </c>
       <c r="CF22" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG22" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH22" t="s">
-        <v>308</v>
-      </c>
-      <c r="CI22" s="3">
-        <v>44692</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:88">
       <c r="A23" s="1">
-        <v>1732</v>
+        <v>1689</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H23">
-        <v>186339</v>
+        <v>106990</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J23" s="2">
-        <v>45309.74211805555</v>
+        <v>44262.65186342593</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="N23" s="3">
-        <v>33095</v>
+        <v>36357</v>
       </c>
       <c r="O23">
-        <v>34</v>
-      </c>
-      <c r="P23" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="Q23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R23" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AC23" t="s">
-        <v>304</v>
+      <c r="AC23" s="3">
+        <v>44249</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -5484,60 +5587,60 @@
         <v>0</v>
       </c>
       <c r="AO23" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP23" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="AQ23" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR23" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="AY23" s="3">
-        <v>45804</v>
+        <v>45849</v>
       </c>
       <c r="AZ23" s="3">
-        <v>45524</v>
+        <v>45571</v>
       </c>
       <c r="BA23" s="3">
-        <v>45065</v>
+        <v>45645</v>
       </c>
       <c r="BB23" s="2">
-        <v>45770.56618055556</v>
+        <v>45792.62974537037</v>
       </c>
       <c r="BC23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM23" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC23" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD23" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="CE23" s="2">
-        <v>45804</v>
+        <v>45851</v>
       </c>
       <c r="CF23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:88">
       <c r="A24" s="1">
-        <v>1734</v>
+        <v>1713</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
@@ -5552,28 +5655,28 @@
         <v>109</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H24">
         <v>186134</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J24" s="2">
         <v>45300.80584490741</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="N24" s="3">
         <v>33764</v>
@@ -5582,31 +5685,31 @@
         <v>33</v>
       </c>
       <c r="Q24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="R24" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -5624,16 +5727,16 @@
         <v>0</v>
       </c>
       <c r="AO24" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP24" s="3">
         <v>45819</v>
       </c>
       <c r="AQ24" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR24" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="AY24" s="3">
         <v>45814</v>
@@ -5648,118 +5751,118 @@
         <v>45770.56368055556</v>
       </c>
       <c r="BC24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM24" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC24" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD24" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="CE24" s="2">
         <v>45813</v>
       </c>
       <c r="CF24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:88">
       <c r="A25" s="1">
-        <v>1954</v>
+        <v>1715</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H25">
-        <v>31860</v>
+        <v>186339</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J25" s="2">
-        <v>42879.80571759259</v>
+        <v>45309.74211805555</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="N25" s="3">
-        <v>30932</v>
+        <v>33095</v>
       </c>
       <c r="O25">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P25" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="Q25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="R25" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X25" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="Y25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>325</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
-      <c r="AH25" t="s">
-        <v>272</v>
-      </c>
       <c r="AI25">
         <v>0</v>
       </c>
@@ -5770,162 +5873,135 @@
         <v>0</v>
       </c>
       <c r="AO25" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AP25" s="3">
-        <v>45771</v>
+        <v>45819</v>
       </c>
       <c r="AQ25" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR25" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AY25" s="3">
-        <v>45849</v>
+        <v>45804</v>
       </c>
       <c r="AZ25" s="3">
-        <v>45569</v>
+        <v>45524</v>
       </c>
       <c r="BA25" s="3">
-        <v>45617</v>
+        <v>45065</v>
       </c>
       <c r="BB25" s="2">
-        <v>45632.06791666667</v>
+        <v>45770.56618055556</v>
       </c>
       <c r="BC25" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM25" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN25" t="s">
-        <v>308</v>
-      </c>
-      <c r="BU25" t="s">
-        <v>170</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>351</v>
-      </c>
-      <c r="BX25" t="s">
-        <v>354</v>
-      </c>
-      <c r="BY25" s="3">
-        <v>44147</v>
-      </c>
-      <c r="CA25" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="CC25" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD25" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="CE25" s="2">
-        <v>45849</v>
+        <v>45804</v>
       </c>
       <c r="CF25" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG25" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH25" t="s">
-        <v>308</v>
-      </c>
-      <c r="CI25" s="3">
-        <v>45782</v>
-      </c>
-      <c r="CJ25" s="3">
-        <v>45840</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:88">
       <c r="A26" s="1">
-        <v>2007</v>
+        <v>1717</v>
       </c>
       <c r="B26" t="s">
         <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H26">
-        <v>194855</v>
+        <v>24009</v>
       </c>
       <c r="I26" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J26" s="2">
-        <v>45530.64438657407</v>
+        <v>42411.69771990741</v>
       </c>
       <c r="K26" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="N26" s="3">
-        <v>33210</v>
+        <v>36255</v>
       </c>
       <c r="O26">
-        <v>34</v>
-      </c>
-      <c r="P26" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="Q26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="R26" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y26" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AB26">
         <v>1</v>
       </c>
-      <c r="AC26" s="3">
-        <v>45463</v>
+      <c r="AC26" t="s">
+        <v>325</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -5940,147 +6016,132 @@
         <v>0</v>
       </c>
       <c r="AO26" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP26" s="3">
-        <v>45754</v>
+        <v>45730</v>
       </c>
       <c r="AQ26" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR26" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="AY26" s="3">
-        <v>45627</v>
+        <v>45767</v>
       </c>
       <c r="AZ26" s="3">
-        <v>45347</v>
+        <v>45486</v>
       </c>
       <c r="BA26" s="3">
-        <v>45456</v>
+        <v>45561</v>
       </c>
       <c r="BB26" s="2">
-        <v>45530.66886574074</v>
+        <v>45770.62432870371</v>
       </c>
       <c r="BC26" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM26" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="BN26" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC26" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD26" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="CE26" s="2">
-        <v>45628</v>
+        <v>45767</v>
       </c>
       <c r="CF26" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG26" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH26" t="s">
-        <v>308</v>
-      </c>
-      <c r="CI26" s="3">
-        <v>45530</v>
-      </c>
-      <c r="CJ26" s="3">
-        <v>45573</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:88">
       <c r="A27" s="1">
-        <v>2163</v>
+        <v>1722</v>
       </c>
       <c r="B27" t="s">
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H27">
-        <v>192006</v>
+        <v>105496</v>
       </c>
       <c r="I27" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J27" s="2">
-        <v>45425.68738425926</v>
+        <v>44187.98162037037</v>
       </c>
       <c r="K27" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N27" s="3">
-        <v>30664</v>
+        <v>34700</v>
       </c>
       <c r="O27">
-        <v>41</v>
-      </c>
-      <c r="P27" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="Q27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R27" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y27" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>45392</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -6095,141 +6156,144 @@
         <v>0</v>
       </c>
       <c r="AO27" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP27" s="3">
-        <v>45707</v>
+        <v>45819</v>
       </c>
       <c r="AQ27" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR27" t="s">
-        <v>329</v>
-      </c>
-      <c r="AW27">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="AY27" s="3">
-        <v>45628</v>
+        <v>45827</v>
       </c>
       <c r="AZ27" s="3">
-        <v>45347</v>
+        <v>45561</v>
       </c>
       <c r="BA27" s="3">
-        <v>45392</v>
+        <v>45596</v>
       </c>
       <c r="BB27" s="2">
-        <v>45425.68949074074</v>
+        <v>45770.62298611111</v>
       </c>
       <c r="BC27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM27" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC27" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD27" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="CE27" s="2">
-        <v>45628</v>
+        <v>45841</v>
       </c>
       <c r="CF27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI27" s="3">
-        <v>45523</v>
-      </c>
-      <c r="CJ27" s="3">
-        <v>45552</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="28" spans="1:88">
       <c r="A28" s="1">
-        <v>2345</v>
+        <v>1878</v>
       </c>
       <c r="B28" t="s">
         <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H28">
-        <v>183731</v>
+        <v>209198</v>
       </c>
       <c r="I28" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J28" s="2">
-        <v>45204.62074074074</v>
+        <v>45804.00541666667</v>
       </c>
       <c r="K28" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="N28" s="3">
-        <v>34135</v>
+        <v>37257</v>
       </c>
       <c r="O28">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="P28" t="s">
+        <v>292</v>
       </c>
       <c r="Q28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R28" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>299</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>317</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>45714</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -6244,66 +6308,66 @@
         <v>0</v>
       </c>
       <c r="AO28" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP28" s="3">
-        <v>45709</v>
+        <v>45799</v>
       </c>
       <c r="AQ28" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR28" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AY28" s="3">
-        <v>45395</v>
+        <v>45860</v>
       </c>
       <c r="AZ28" s="3">
-        <v>45127</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>304</v>
+        <v>45580</v>
+      </c>
+      <c r="BA28" s="3">
+        <v>45714</v>
       </c>
       <c r="BB28" s="2">
-        <v>45204.62678240741</v>
+        <v>45804.5272800926</v>
       </c>
       <c r="BC28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM28" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="BN28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC28" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD28" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="CE28" s="2">
-        <v>45409</v>
+        <v>45860</v>
       </c>
       <c r="CF28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:88">
       <c r="A29" s="1">
-        <v>2373</v>
+        <v>1944</v>
       </c>
       <c r="B29" t="s">
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>98</v>
@@ -6312,67 +6376,64 @@
         <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H29">
-        <v>177881</v>
+        <v>31860</v>
       </c>
       <c r="I29" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J29" s="2">
-        <v>45034.66113425926</v>
+        <v>42879.80571759259</v>
       </c>
       <c r="K29" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="N29" s="3">
-        <v>32137</v>
+        <v>30932</v>
       </c>
       <c r="O29">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="Q29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R29" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X29" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -6380,6 +6441,9 @@
       <c r="AD29">
         <v>0</v>
       </c>
+      <c r="AH29" t="s">
+        <v>293</v>
+      </c>
       <c r="AI29">
         <v>0</v>
       </c>
@@ -6390,150 +6454,162 @@
         <v>0</v>
       </c>
       <c r="AO29" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="AP29" s="3">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="AQ29" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR29" t="s">
-        <v>331</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="AY29" s="3">
-        <v>45753</v>
+        <v>45849</v>
       </c>
       <c r="AZ29" s="3">
-        <v>45473</v>
+        <v>45569</v>
       </c>
       <c r="BA29" s="3">
-        <v>45519</v>
+        <v>45617</v>
       </c>
       <c r="BB29" s="2">
-        <v>45548.69295138889</v>
+        <v>45632.06791666667</v>
       </c>
       <c r="BC29" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM29" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN29" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>375</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>378</v>
+      </c>
+      <c r="BY29" s="3">
+        <v>44147</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>381</v>
       </c>
       <c r="CC29" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD29" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="CE29" s="2">
-        <v>45753</v>
+        <v>45849</v>
       </c>
       <c r="CF29" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG29" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH29" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI29" s="3">
-        <v>45685</v>
+        <v>45782</v>
       </c>
       <c r="CJ29" s="3">
-        <v>45768</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="30" spans="1:88">
       <c r="A30" s="1">
-        <v>2561</v>
+        <v>1953</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H30">
-        <v>160476</v>
+        <v>194855</v>
       </c>
       <c r="I30" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J30" s="2">
-        <v>44708.61177083333</v>
+        <v>45530.64438657407</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="N30" s="3">
-        <v>33675</v>
+        <v>33210</v>
       </c>
       <c r="O30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P30" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="Q30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R30" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z30" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="AB30">
         <v>1</v>
       </c>
       <c r="AC30" s="3">
-        <v>44662</v>
+        <v>45463</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -6548,144 +6624,147 @@
         <v>0</v>
       </c>
       <c r="AO30" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP30" s="3">
-        <v>45742</v>
+        <v>45754</v>
       </c>
       <c r="AQ30" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR30" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="AY30" s="3">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="AZ30" s="3">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="BA30" s="3">
-        <v>45461</v>
+        <v>45456</v>
       </c>
       <c r="BB30" s="2">
-        <v>45536.06923611111</v>
+        <v>45530.66886574074</v>
       </c>
       <c r="BC30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM30" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC30" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD30" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="CE30" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="CF30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI30" s="3">
-        <v>45554</v>
+        <v>45530</v>
       </c>
       <c r="CJ30" s="3">
-        <v>45554</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="31" spans="1:88">
       <c r="A31" s="1">
-        <v>2591</v>
+        <v>2162</v>
       </c>
       <c r="B31" t="s">
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H31">
-        <v>175111</v>
+        <v>192006</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J31" s="2">
-        <v>44984.69831018519</v>
+        <v>45425.68738425926</v>
       </c>
       <c r="K31" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="M31" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="N31" s="3">
-        <v>30719</v>
+        <v>30664</v>
       </c>
       <c r="O31">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="Q31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R31" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="S31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z31" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>45392</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -6700,61 +6779,654 @@
         <v>0</v>
       </c>
       <c r="AO31" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AP31" s="3">
-        <v>45771</v>
+        <v>45707</v>
       </c>
       <c r="AQ31" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AR31" t="s">
-        <v>333</v>
+        <v>353</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
       </c>
       <c r="AY31" s="3">
-        <v>45850</v>
+        <v>45628</v>
       </c>
       <c r="AZ31" s="3">
-        <v>45570</v>
-      </c>
-      <c r="BA31" t="s">
-        <v>304</v>
+        <v>45347</v>
+      </c>
+      <c r="BA31" s="3">
+        <v>45392</v>
       </c>
       <c r="BB31" s="2">
-        <v>45761.69460648148</v>
+        <v>45425.68949074074</v>
       </c>
       <c r="BC31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BM31" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BN31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CC31" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CD31" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="CE31" s="2">
-        <v>45850</v>
+        <v>45628</v>
       </c>
       <c r="CF31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CI31" s="3">
-        <v>45701</v>
+        <v>45523</v>
       </c>
       <c r="CJ31" s="3">
-        <v>45790</v>
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:88">
+      <c r="A32" s="1">
+        <v>2333</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32">
+        <v>183731</v>
+      </c>
+      <c r="I32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" s="2">
+        <v>45204.62074074074</v>
+      </c>
+      <c r="K32" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="s">
+        <v>263</v>
+      </c>
+      <c r="N32" s="3">
+        <v>34135</v>
+      </c>
+      <c r="O32">
+        <v>32</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>148</v>
+      </c>
+      <c r="R32" t="s">
+        <v>298</v>
+      </c>
+      <c r="S32" t="s">
+        <v>299</v>
+      </c>
+      <c r="T32" t="s">
+        <v>299</v>
+      </c>
+      <c r="U32" t="s">
+        <v>299</v>
+      </c>
+      <c r="V32" t="s">
+        <v>299</v>
+      </c>
+      <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>45709</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>354</v>
+      </c>
+      <c r="AY32" s="3">
+        <v>45395</v>
+      </c>
+      <c r="AZ32" s="3">
+        <v>45127</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>325</v>
+      </c>
+      <c r="BB32" s="2">
+        <v>45204.62678240741</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>329</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>329</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>293</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>390</v>
+      </c>
+      <c r="CE32" s="2">
+        <v>45409</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>329</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:88">
+      <c r="A33" s="1">
+        <v>2360</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33">
+        <v>177881</v>
+      </c>
+      <c r="I33" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" s="2">
+        <v>45034.66113425926</v>
+      </c>
+      <c r="K33" t="s">
+        <v>204</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="s">
+        <v>270</v>
+      </c>
+      <c r="N33" s="3">
+        <v>32137</v>
+      </c>
+      <c r="O33">
+        <v>37</v>
+      </c>
+      <c r="P33" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>149</v>
+      </c>
+      <c r="R33" t="s">
+        <v>298</v>
+      </c>
+      <c r="S33" t="s">
+        <v>299</v>
+      </c>
+      <c r="T33" t="s">
+        <v>299</v>
+      </c>
+      <c r="U33" t="s">
+        <v>299</v>
+      </c>
+      <c r="V33" t="s">
+        <v>299</v>
+      </c>
+      <c r="W33" t="s">
+        <v>299</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>45772</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>355</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AY33" s="3">
+        <v>45753</v>
+      </c>
+      <c r="AZ33" s="3">
+        <v>45473</v>
+      </c>
+      <c r="BA33" s="3">
+        <v>45519</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>45548.69295138889</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>328</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>415</v>
+      </c>
+      <c r="CE33" s="2">
+        <v>45753</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CI33" s="3">
+        <v>45685</v>
+      </c>
+      <c r="CJ33" s="3">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="34" spans="1:88">
+      <c r="A34" s="1">
+        <v>2451</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34">
+        <v>107085</v>
+      </c>
+      <c r="I34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34" s="2">
+        <v>44264.84422453704</v>
+      </c>
+      <c r="K34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" t="s">
+        <v>239</v>
+      </c>
+      <c r="M34" t="s">
+        <v>257</v>
+      </c>
+      <c r="N34" s="3">
+        <v>30932</v>
+      </c>
+      <c r="O34">
+        <v>40</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>150</v>
+      </c>
+      <c r="R34" t="s">
+        <v>298</v>
+      </c>
+      <c r="S34" t="s">
+        <v>299</v>
+      </c>
+      <c r="T34" t="s">
+        <v>299</v>
+      </c>
+      <c r="U34" t="s">
+        <v>299</v>
+      </c>
+      <c r="V34" t="s">
+        <v>299</v>
+      </c>
+      <c r="W34" t="s">
+        <v>299</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>45834</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>356</v>
+      </c>
+      <c r="AY34" s="3">
+        <v>45860</v>
+      </c>
+      <c r="AZ34" s="3">
+        <v>45580</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>325</v>
+      </c>
+      <c r="BB34" s="2">
+        <v>45803.98542824074</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>328</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>329</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>293</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>401</v>
+      </c>
+      <c r="CE34" s="2">
+        <v>45860</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>329</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:88">
+      <c r="A35" s="1">
+        <v>2521</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35">
+        <v>160476</v>
+      </c>
+      <c r="I35" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" s="2">
+        <v>44708.61177083333</v>
+      </c>
+      <c r="K35" t="s">
+        <v>206</v>
+      </c>
+      <c r="L35" t="s">
+        <v>240</v>
+      </c>
+      <c r="M35" t="s">
+        <v>271</v>
+      </c>
+      <c r="N35" s="3">
+        <v>33675</v>
+      </c>
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>151</v>
+      </c>
+      <c r="R35" t="s">
+        <v>298</v>
+      </c>
+      <c r="S35" t="s">
+        <v>299</v>
+      </c>
+      <c r="T35" t="s">
+        <v>299</v>
+      </c>
+      <c r="U35" t="s">
+        <v>299</v>
+      </c>
+      <c r="V35" t="s">
+        <v>299</v>
+      </c>
+      <c r="W35" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>44662</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>45742</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>357</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>45625</v>
+      </c>
+      <c r="AZ35" s="3">
+        <v>45344</v>
+      </c>
+      <c r="BA35" s="3">
+        <v>45461</v>
+      </c>
+      <c r="BB35" s="2">
+        <v>45536.06923611111</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>328</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>329</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>293</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>416</v>
+      </c>
+      <c r="CE35" s="2">
+        <v>45625</v>
+      </c>
+      <c r="CF35" t="s">
+        <v>329</v>
+      </c>
+      <c r="CG35" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH35" t="s">
+        <v>329</v>
+      </c>
+      <c r="CI35" s="3">
+        <v>45554</v>
+      </c>
+      <c r="CJ35" s="3">
+        <v>45554</v>
       </c>
     </row>
   </sheetData>
